--- a/ichimoku_cloud/ichimoku_data/PLTR_180d_ichimoku.xlsx
+++ b/ichimoku_cloud/ichimoku_data/PLTR_180d_ichimoku.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,30 +455,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tenkan_sen</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>kijun_sen</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>senkou_span_a</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>senkou_span_b</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>chikou_span</t>
         </is>
@@ -495,13 +500,16 @@
         <v>17.01</v>
       </c>
       <c r="D2" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="E2" t="n">
         <v>17.99</v>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
         <v>15.6</v>
       </c>
     </row>
@@ -516,13 +524,16 @@
         <v>16.1</v>
       </c>
       <c r="D3" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="E3" t="n">
         <v>17.04</v>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
         <v>15.83</v>
       </c>
     </row>
@@ -537,13 +548,16 @@
         <v>15.1</v>
       </c>
       <c r="D4" t="n">
+        <v>16.76</v>
+      </c>
+      <c r="E4" t="n">
         <v>15.25</v>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>15.33</v>
       </c>
     </row>
@@ -558,13 +572,16 @@
         <v>15.25</v>
       </c>
       <c r="D5" t="n">
+        <v>15.44</v>
+      </c>
+      <c r="E5" t="n">
         <v>15.41</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>15.46</v>
       </c>
     </row>
@@ -579,13 +596,16 @@
         <v>14.91</v>
       </c>
       <c r="D6" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="E6" t="n">
         <v>15.41</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>15.15</v>
       </c>
     </row>
@@ -600,13 +620,16 @@
         <v>14.95</v>
       </c>
       <c r="D7" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E7" t="n">
         <v>15.72</v>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
         <v>14.74</v>
       </c>
     </row>
@@ -621,13 +644,16 @@
         <v>15.29</v>
       </c>
       <c r="D8" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="E8" t="n">
         <v>15.37</v>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
         <v>14</v>
       </c>
     </row>
@@ -642,13 +668,16 @@
         <v>15.12</v>
       </c>
       <c r="D9" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="E9" t="n">
         <v>15.45</v>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>14.13</v>
       </c>
     </row>
@@ -663,15 +692,18 @@
         <v>14.035</v>
       </c>
       <c r="D10" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="E10" t="n">
         <v>14.15</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>16.2125</v>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
         <v>14.22</v>
       </c>
     </row>
@@ -686,15 +718,18 @@
         <v>13.68</v>
       </c>
       <c r="D11" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="E11" t="n">
         <v>14.4</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>15.585</v>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>13.96</v>
       </c>
     </row>
@@ -709,15 +744,18 @@
         <v>14.34</v>
       </c>
       <c r="D12" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="E12" t="n">
         <v>14.5</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>15.3</v>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>14.85</v>
       </c>
     </row>
@@ -732,15 +770,18 @@
         <v>14.63</v>
       </c>
       <c r="D13" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="E13" t="n">
         <v>14.67</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>14.775</v>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>15.77</v>
       </c>
     </row>
@@ -755,15 +796,18 @@
         <v>14.42</v>
       </c>
       <c r="D14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E14" t="n">
         <v>15.3</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>14.775</v>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>16</v>
       </c>
     </row>
@@ -778,15 +822,18 @@
         <v>13.875</v>
       </c>
       <c r="D15" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E15" t="n">
         <v>14.14</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>14.775</v>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>15.88</v>
       </c>
     </row>
@@ -801,15 +848,18 @@
         <v>14.01</v>
       </c>
       <c r="D16" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="E16" t="n">
         <v>14.53</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>14.775</v>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>14.9</v>
       </c>
     </row>
@@ -824,15 +874,18 @@
         <v>14.5</v>
       </c>
       <c r="D17" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="E17" t="n">
         <v>14.64</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>14.7025</v>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>15.73</v>
       </c>
     </row>
@@ -847,15 +900,18 @@
         <v>14.5</v>
       </c>
       <c r="D18" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E18" t="n">
         <v>15.4</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>14.695</v>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>15.81</v>
       </c>
     </row>
@@ -870,15 +926,18 @@
         <v>15.33</v>
       </c>
       <c r="D19" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="E19" t="n">
         <v>16.33</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>15.015</v>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
         <v>16.61</v>
       </c>
     </row>
@@ -893,15 +952,18 @@
         <v>14.65</v>
       </c>
       <c r="D20" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E20" t="n">
         <v>14.98</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>15.1125</v>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
         <v>17.61</v>
       </c>
     </row>
@@ -916,15 +978,18 @@
         <v>14.83</v>
       </c>
       <c r="D21" t="n">
+        <v>15.16</v>
+      </c>
+      <c r="E21" t="n">
         <v>15.18</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>15.1125</v>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
         <v>17.8</v>
       </c>
     </row>
@@ -939,15 +1004,18 @@
         <v>14.9</v>
       </c>
       <c r="D22" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="E22" t="n">
         <v>15.21</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>15.1125</v>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>17.92</v>
       </c>
     </row>
@@ -962,15 +1030,18 @@
         <v>15.08</v>
       </c>
       <c r="D23" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="E23" t="n">
         <v>15.3</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>15.1125</v>
       </c>
-      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>17.94</v>
       </c>
     </row>
@@ -985,15 +1056,18 @@
         <v>14.29</v>
       </c>
       <c r="D24" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="E24" t="n">
         <v>15.21</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>15.18</v>
       </c>
-      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>17.36</v>
       </c>
     </row>
@@ -1008,15 +1082,18 @@
         <v>15.085</v>
       </c>
       <c r="D25" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="E25" t="n">
         <v>15.13</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>15.32</v>
       </c>
-      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>17.36</v>
       </c>
     </row>
@@ -1031,15 +1108,18 @@
         <v>15.36</v>
       </c>
       <c r="D26" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="E26" t="n">
         <v>15.79</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>15.32</v>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>17.84</v>
       </c>
     </row>
@@ -1054,17 +1134,20 @@
         <v>15.43</v>
       </c>
       <c r="D27" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="E27" t="n">
         <v>15.59</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>15.32</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>16.035</v>
       </c>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>17.2</v>
       </c>
     </row>
@@ -1079,17 +1162,20 @@
         <v>15.42</v>
       </c>
       <c r="D28" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="E28" t="n">
         <v>15.6</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>15.22</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>15.585</v>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>17.06</v>
       </c>
     </row>
@@ -1104,17 +1190,20 @@
         <v>15.47</v>
       </c>
       <c r="D29" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="E29" t="n">
         <v>15.83</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>15.22</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>15.3</v>
       </c>
-      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>16.11</v>
       </c>
     </row>
@@ -1129,17 +1218,20 @@
         <v>15.17</v>
       </c>
       <c r="D30" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="E30" t="n">
         <v>15.33</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>15.22</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>15.015</v>
       </c>
-      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>16.2</v>
       </c>
     </row>
@@ -1154,17 +1246,20 @@
         <v>15.07</v>
       </c>
       <c r="D31" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="E31" t="n">
         <v>15.46</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>15.22</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>15.015</v>
       </c>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>16.64</v>
       </c>
     </row>
@@ -1179,17 +1274,20 @@
         <v>14.95</v>
       </c>
       <c r="D32" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="E32" t="n">
         <v>15.15</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>15.22</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>15.015</v>
       </c>
-      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>15.59</v>
       </c>
     </row>
@@ -1204,17 +1302,20 @@
         <v>14.7325</v>
       </c>
       <c r="D33" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="E33" t="n">
         <v>14.74</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>15.44125</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>15.015</v>
       </c>
-      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>15.29</v>
       </c>
     </row>
@@ -1229,17 +1330,20 @@
         <v>13.68</v>
       </c>
       <c r="D34" t="n">
+        <v>14.34</v>
+      </c>
+      <c r="E34" t="n">
         <v>14</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>14.915</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>15.015</v>
       </c>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>15.07</v>
       </c>
     </row>
@@ -1254,17 +1358,20 @@
         <v>14.03</v>
       </c>
       <c r="D35" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="E35" t="n">
         <v>14.13</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>14.915</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>15.015</v>
       </c>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>14.69</v>
       </c>
     </row>
@@ -1279,17 +1386,20 @@
         <v>13.82</v>
       </c>
       <c r="D36" t="n">
+        <v>14</v>
+      </c>
+      <c r="E36" t="n">
         <v>14.22</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>14.86</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>15.015</v>
       </c>
-      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>14.8</v>
       </c>
     </row>
@@ -1304,17 +1414,20 @@
         <v>13.88</v>
       </c>
       <c r="D37" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="E37" t="n">
         <v>13.96</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>14.86</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>15.015</v>
       </c>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>14.92</v>
       </c>
     </row>
@@ -1329,17 +1442,20 @@
         <v>14.16</v>
       </c>
       <c r="D38" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E38" t="n">
         <v>14.85</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>14.79</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>15.015</v>
       </c>
-      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>17.97</v>
       </c>
     </row>
@@ -1354,17 +1470,20 @@
         <v>14.825</v>
       </c>
       <c r="D39" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="E39" t="n">
         <v>15.77</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>14.82</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>15.015</v>
       </c>
-      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>18.89</v>
       </c>
     </row>
@@ -1379,17 +1498,20 @@
         <v>15.96</v>
       </c>
       <c r="D40" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="E40" t="n">
         <v>16</v>
-      </c>
-      <c r="E40" t="n">
-        <v>15.245</v>
       </c>
       <c r="F40" t="n">
         <v>15.245</v>
       </c>
-      <c r="G40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>15.245</v>
+      </c>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>18.54</v>
       </c>
     </row>
@@ -1404,17 +1526,20 @@
         <v>15.77</v>
       </c>
       <c r="D41" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="E41" t="n">
         <v>15.88</v>
-      </c>
-      <c r="E41" t="n">
-        <v>15.245</v>
       </c>
       <c r="F41" t="n">
         <v>15.245</v>
       </c>
-      <c r="G41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>15.245</v>
+      </c>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>18.8</v>
       </c>
     </row>
@@ -1429,17 +1554,20 @@
         <v>14.82</v>
       </c>
       <c r="D42" t="n">
+        <v>15.61</v>
+      </c>
+      <c r="E42" t="n">
         <v>14.9</v>
-      </c>
-      <c r="E42" t="n">
-        <v>15.245</v>
       </c>
       <c r="F42" t="n">
         <v>15.245</v>
       </c>
-      <c r="G42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>15.245</v>
+      </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>18.49</v>
       </c>
     </row>
@@ -1454,17 +1582,20 @@
         <v>15.16</v>
       </c>
       <c r="D43" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="E43" t="n">
         <v>15.73</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>15.315</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>15.245</v>
       </c>
-      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
         <v>18.27</v>
       </c>
     </row>
@@ -1479,17 +1610,20 @@
         <v>15.41</v>
       </c>
       <c r="D44" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="E44" t="n">
         <v>15.81</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>15.315</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>15.245</v>
       </c>
-      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
         <v>19.67</v>
       </c>
     </row>
@@ -1504,17 +1638,20 @@
         <v>15.51</v>
       </c>
       <c r="D45" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="E45" t="n">
         <v>16.61</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>15.345</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>15.245</v>
       </c>
-      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
         <v>19.71</v>
       </c>
     </row>
@@ -1529,17 +1666,20 @@
         <v>16.22</v>
       </c>
       <c r="D46" t="n">
+        <v>16.27</v>
+      </c>
+      <c r="E46" t="n">
         <v>17.61</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>15.995</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>15.755</v>
       </c>
-      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
         <v>19.94</v>
       </c>
     </row>
@@ -1554,17 +1694,20 @@
         <v>17.62</v>
       </c>
       <c r="D47" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="E47" t="n">
         <v>17.8</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>16.61</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>16.04</v>
       </c>
-      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>19.95</v>
       </c>
     </row>
@@ -1579,17 +1722,20 @@
         <v>17.73</v>
       </c>
       <c r="D48" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="E48" t="n">
         <v>17.92</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>16.63</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>16.06</v>
       </c>
-      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
         <v>19.77</v>
       </c>
     </row>
@@ -1604,17 +1750,20 @@
         <v>17.5508</v>
       </c>
       <c r="D49" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="E49" t="n">
         <v>17.94</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>16.63</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>16.06</v>
       </c>
-      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>20.49</v>
       </c>
     </row>
@@ -1629,17 +1778,20 @@
         <v>17.27</v>
       </c>
       <c r="D50" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="E50" t="n">
         <v>17.36</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>16.63</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>16.06</v>
       </c>
-      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>21.34</v>
       </c>
     </row>
@@ -1654,17 +1806,20 @@
         <v>16.67</v>
       </c>
       <c r="D51" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="E51" t="n">
         <v>17.36</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>16.8</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>16.06</v>
       </c>
-      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>19.8</v>
       </c>
     </row>
@@ -1679,17 +1834,20 @@
         <v>16.91</v>
       </c>
       <c r="D52" t="n">
+        <v>17</v>
+      </c>
+      <c r="E52" t="n">
         <v>17.84</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>16.925</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>16.06</v>
       </c>
-      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
         <v>19.69</v>
       </c>
     </row>
@@ -1704,19 +1862,22 @@
         <v>17.19</v>
       </c>
       <c r="D53" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="E53" t="n">
         <v>17.2</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>16.975</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>16.06</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>15.6775</v>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
         <v>19.2</v>
       </c>
     </row>
@@ -1731,19 +1892,22 @@
         <v>16.97</v>
       </c>
       <c r="D54" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="E54" t="n">
         <v>17.06</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>17.33</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>16.06</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>15.4025</v>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
         <v>19.08</v>
       </c>
     </row>
@@ -1758,19 +1922,22 @@
         <v>15.81</v>
       </c>
       <c r="D55" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="E55" t="n">
         <v>16.11</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>17.125</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>16.06</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>15.26</v>
       </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
         <v>19.71</v>
       </c>
     </row>
@@ -1785,19 +1952,22 @@
         <v>15.21</v>
       </c>
       <c r="D56" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E56" t="n">
         <v>16.2</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>16.825</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>16.06</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>15.1175</v>
       </c>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="n">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
         <v>19.84</v>
       </c>
     </row>
@@ -1812,19 +1982,22 @@
         <v>16.3</v>
       </c>
       <c r="D57" t="n">
+        <v>16.38</v>
+      </c>
+      <c r="E57" t="n">
         <v>16.64</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>16.725</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>16.06</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>15.1175</v>
       </c>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
         <v>20.05</v>
       </c>
     </row>
@@ -1839,19 +2012,22 @@
         <v>15.58</v>
       </c>
       <c r="D58" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="E58" t="n">
         <v>15.59</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>16.715</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>16.06</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>15.1175</v>
       </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
         <v>20.27</v>
       </c>
     </row>
@@ -1866,19 +2042,22 @@
         <v>15.05</v>
       </c>
       <c r="D59" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="E59" t="n">
         <v>15.29</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>16.635</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>16.06</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>15.228125</v>
       </c>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="n">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
         <v>18.4</v>
       </c>
     </row>
@@ -1893,19 +2072,22 @@
         <v>14.96</v>
       </c>
       <c r="D60" t="n">
+        <v>15.48</v>
+      </c>
+      <c r="E60" t="n">
         <v>15.07</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>16.59</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>16.13</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>14.965</v>
       </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="n">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
         <v>18.3</v>
       </c>
     </row>
@@ -1920,19 +2102,22 @@
         <v>14.56</v>
       </c>
       <c r="D61" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="E61" t="n">
         <v>14.69</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>16.39</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>16.13</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>14.965</v>
       </c>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
         <v>17.13</v>
       </c>
     </row>
@@ -1947,19 +2132,22 @@
         <v>14.55</v>
       </c>
       <c r="D62" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="E62" t="n">
         <v>14.8</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>16.06495</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>16.16</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>14.9375</v>
       </c>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
         <v>17.22</v>
       </c>
     </row>
@@ -1974,19 +2162,22 @@
         <v>14.48</v>
       </c>
       <c r="D63" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E63" t="n">
         <v>14.92</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>15.71</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>16.3</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>14.9375</v>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
         <v>17.77</v>
       </c>
     </row>
@@ -2001,19 +2192,22 @@
         <v>17.2101</v>
       </c>
       <c r="D64" t="n">
+        <v>17.48</v>
+      </c>
+      <c r="E64" t="n">
         <v>17.97</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>16.39</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>16.46</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>14.9025</v>
       </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
         <v>17.77</v>
       </c>
     </row>
@@ -2028,19 +2222,22 @@
         <v>17.76</v>
       </c>
       <c r="D65" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="E65" t="n">
         <v>18.89</v>
-      </c>
-      <c r="E65" t="n">
-        <v>16.77945</v>
       </c>
       <c r="F65" t="n">
         <v>16.77945</v>
       </c>
       <c r="G65" t="n">
+        <v>16.77945</v>
+      </c>
+      <c r="H65" t="n">
         <v>14.9175</v>
       </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
         <v>17.5</v>
       </c>
     </row>
@@ -2055,19 +2252,22 @@
         <v>17.93</v>
       </c>
       <c r="D66" t="n">
+        <v>18.99</v>
+      </c>
+      <c r="E66" t="n">
         <v>18.54</v>
-      </c>
-      <c r="E66" t="n">
-        <v>16.78</v>
       </c>
       <c r="F66" t="n">
         <v>16.78</v>
       </c>
       <c r="G66" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="H66" t="n">
         <v>15.245</v>
       </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
         <v>17.87</v>
       </c>
     </row>
@@ -2082,19 +2282,22 @@
         <v>18.53</v>
       </c>
       <c r="D67" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="E67" t="n">
         <v>18.8</v>
-      </c>
-      <c r="E67" t="n">
-        <v>16.825</v>
       </c>
       <c r="F67" t="n">
         <v>16.825</v>
       </c>
       <c r="G67" t="n">
+        <v>16.825</v>
+      </c>
+      <c r="H67" t="n">
         <v>15.245</v>
       </c>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
         <v>18.21</v>
       </c>
     </row>
@@ -2109,19 +2312,22 @@
         <v>18.15</v>
       </c>
       <c r="D68" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="E68" t="n">
         <v>18.49</v>
-      </c>
-      <c r="E68" t="n">
-        <v>16.825</v>
       </c>
       <c r="F68" t="n">
         <v>16.825</v>
       </c>
       <c r="G68" t="n">
+        <v>16.825</v>
+      </c>
+      <c r="H68" t="n">
         <v>15.245</v>
       </c>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
         <v>18.2</v>
       </c>
     </row>
@@ -2136,19 +2342,22 @@
         <v>18.16</v>
       </c>
       <c r="D69" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="E69" t="n">
         <v>18.27</v>
-      </c>
-      <c r="E69" t="n">
-        <v>16.825</v>
       </c>
       <c r="F69" t="n">
         <v>16.825</v>
       </c>
       <c r="G69" t="n">
+        <v>16.825</v>
+      </c>
+      <c r="H69" t="n">
         <v>15.28</v>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
         <v>17.84</v>
       </c>
     </row>
@@ -2163,19 +2372,22 @@
         <v>18.06</v>
       </c>
       <c r="D70" t="n">
+        <v>18.155</v>
+      </c>
+      <c r="E70" t="n">
         <v>19.67</v>
-      </c>
-      <c r="E70" t="n">
-        <v>17.1</v>
       </c>
       <c r="F70" t="n">
         <v>17.1</v>
       </c>
       <c r="G70" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="H70" t="n">
         <v>15.28</v>
       </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
         <v>17.95</v>
       </c>
     </row>
@@ -2190,19 +2402,22 @@
         <v>19.3</v>
       </c>
       <c r="D71" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="E71" t="n">
         <v>19.71</v>
-      </c>
-      <c r="E71" t="n">
-        <v>17.18</v>
       </c>
       <c r="F71" t="n">
         <v>17.18</v>
       </c>
       <c r="G71" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="H71" t="n">
         <v>15.295</v>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
         <v>17.25</v>
       </c>
     </row>
@@ -2217,19 +2432,22 @@
         <v>19.5</v>
       </c>
       <c r="D72" t="n">
+        <v>20</v>
+      </c>
+      <c r="E72" t="n">
         <v>19.94</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>18.65505</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>17.29</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>15.875</v>
       </c>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
         <v>17.59</v>
       </c>
     </row>
@@ -2244,19 +2462,22 @@
         <v>19.611</v>
       </c>
       <c r="D73" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E73" t="n">
         <v>19.95</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>19.065</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>17.425</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>16.325</v>
       </c>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
         <v>17.41</v>
       </c>
     </row>
@@ -2271,19 +2492,22 @@
         <v>19.29</v>
       </c>
       <c r="D74" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E74" t="n">
         <v>19.77</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>19.15</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>17.425</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>16.345</v>
       </c>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
         <v>17.68</v>
       </c>
     </row>
@@ -2298,19 +2522,22 @@
         <v>19.6587</v>
       </c>
       <c r="D75" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="E75" t="n">
         <v>20.49</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>19.32</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>17.53</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>16.345</v>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
         <v>17.47</v>
       </c>
     </row>
@@ -2325,19 +2552,22 @@
         <v>20.56</v>
       </c>
       <c r="D76" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="E76" t="n">
         <v>21.34</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>19.83</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>18.04</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>16.345</v>
       </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="n">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
         <v>17.56</v>
       </c>
     </row>
@@ -2352,19 +2582,22 @@
         <v>19.72</v>
       </c>
       <c r="D77" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="E77" t="n">
         <v>19.8</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>19.955</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>18.165</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>16.43</v>
       </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="n">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
         <v>17.17</v>
       </c>
     </row>
@@ -2379,19 +2612,22 @@
         <v>19.33</v>
       </c>
       <c r="D78" t="n">
+        <v>20.26</v>
+      </c>
+      <c r="E78" t="n">
         <v>19.69</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>19.955</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>18.165</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>16.4925</v>
       </c>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="n">
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
         <v>16.58</v>
       </c>
     </row>
@@ -2406,21 +2642,24 @@
         <v>18.93</v>
       </c>
       <c r="D79" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="E79" t="n">
         <v>19.2</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>20.39</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>18.165</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>16.5175</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>16.06</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>16.09</v>
       </c>
     </row>
@@ -2435,21 +2674,24 @@
         <v>18.62</v>
       </c>
       <c r="D80" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="E80" t="n">
         <v>19.08</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>20.235</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>18.165</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>16.695</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>16.06</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>16.25</v>
       </c>
     </row>
@@ -2464,21 +2706,24 @@
         <v>19.03</v>
       </c>
       <c r="D81" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="E81" t="n">
         <v>19.71</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>20.235</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>18.165</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>16.5925</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>16.06</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>15.98</v>
       </c>
     </row>
@@ -2493,21 +2738,24 @@
         <v>19.78</v>
       </c>
       <c r="D82" t="n">
+        <v>19.945</v>
+      </c>
+      <c r="E82" t="n">
         <v>19.84</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>20.235</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>18.165</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>16.4425</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>16.06</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>16.67</v>
       </c>
     </row>
@@ -2522,21 +2770,24 @@
         <v>19.68</v>
       </c>
       <c r="D83" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="E83" t="n">
         <v>20.05</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>20.235</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>18.165</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>16.3925</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>16.06</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>16.39</v>
       </c>
     </row>
@@ -2551,21 +2802,24 @@
         <v>19.55</v>
       </c>
       <c r="D84" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="E84" t="n">
         <v>20.27</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>20.235</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>18.165</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>16.3875</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>16.06</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>16.79</v>
       </c>
     </row>
@@ -2580,21 +2834,24 @@
         <v>18.27</v>
       </c>
       <c r="D85" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="E85" t="n">
         <v>18.4</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>20.06</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>18.165</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>16.3475</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>16.06</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>16.68</v>
       </c>
     </row>
@@ -2609,21 +2866,24 @@
         <v>17.96</v>
       </c>
       <c r="D86" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="E86" t="n">
         <v>18.3</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>19.2</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>18.165</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>16.36</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>16.06</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>16.76</v>
       </c>
     </row>
@@ -2638,21 +2898,24 @@
         <v>17.05</v>
       </c>
       <c r="D87" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="E87" t="n">
         <v>17.13</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>18.68</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>18.165</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>16.26</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>16.06</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>16.53</v>
       </c>
     </row>
@@ -2670,18 +2933,21 @@
         <v>17.22</v>
       </c>
       <c r="E88" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="F88" t="n">
         <v>18.68</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>18.165</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>16.112475</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>16.06</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>16.39</v>
       </c>
     </row>
@@ -2696,21 +2962,24 @@
         <v>17.09</v>
       </c>
       <c r="D89" t="n">
+        <v>17.18</v>
+      </c>
+      <c r="E89" t="n">
         <v>17.77</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>18.68</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>19.45</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>16.005</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>16.06</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>16.4</v>
       </c>
     </row>
@@ -2725,21 +2994,24 @@
         <v>17.7</v>
       </c>
       <c r="D90" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="E90" t="n">
         <v>17.77</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>18.68</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>19.45</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>16.425</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>16.06</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>16.78</v>
       </c>
     </row>
@@ -2754,21 +3026,24 @@
         <v>17.2301</v>
       </c>
       <c r="D91" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="E91" t="n">
         <v>17.5</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>18.67</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>19.45</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>16.77945</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>16.37945</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>17.6</v>
       </c>
     </row>
@@ -2783,21 +3058,24 @@
         <v>17.22</v>
       </c>
       <c r="D92" t="n">
+        <v>17.65</v>
+      </c>
+      <c r="E92" t="n">
         <v>17.87</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>18.67</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>19.45</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>16.78</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>16.38</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>17.33</v>
       </c>
     </row>
@@ -2812,21 +3090,24 @@
         <v>17.72</v>
       </c>
       <c r="D93" t="n">
+        <v>18.17</v>
+      </c>
+      <c r="E93" t="n">
         <v>18.21</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>18.475</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>19.45</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>16.825</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>16.425</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>16.75</v>
       </c>
     </row>
@@ -2841,21 +3122,24 @@
         <v>18.04</v>
       </c>
       <c r="D94" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="E94" t="n">
         <v>18.2</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>18.1</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>19.45</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>16.825</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>16.425</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>16.46</v>
       </c>
     </row>
@@ -2870,21 +3154,24 @@
         <v>17.77</v>
       </c>
       <c r="D95" t="n">
+        <v>18.21</v>
+      </c>
+      <c r="E95" t="n">
         <v>17.84</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>18.1</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>19.45</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>16.825</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>16.425</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>16.35</v>
       </c>
     </row>
@@ -2899,21 +3186,24 @@
         <v>17.84</v>
       </c>
       <c r="D96" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="E96" t="n">
         <v>17.95</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>18.115</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>19.45</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>17.1</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>16.7</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>17.09</v>
       </c>
     </row>
@@ -2928,21 +3218,24 @@
         <v>17.19</v>
       </c>
       <c r="D97" t="n">
+        <v>17.87</v>
+      </c>
+      <c r="E97" t="n">
         <v>17.25</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>18.12</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>19.45</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>17.18</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>16.78</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>16.74</v>
       </c>
     </row>
@@ -2957,21 +3250,24 @@
         <v>17.42</v>
       </c>
       <c r="D98" t="n">
+        <v>17.53</v>
+      </c>
+      <c r="E98" t="n">
         <v>17.59</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>18.17</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>19.45</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>17.972525</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>16.89</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>16.09</v>
       </c>
     </row>
@@ -2986,21 +3282,24 @@
         <v>17.325</v>
       </c>
       <c r="D99" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="E99" t="n">
         <v>17.41</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>18.17</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>19.45</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>18.245</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>17.025</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>16.33</v>
       </c>
     </row>
@@ -3015,21 +3314,24 @@
         <v>17.3299</v>
       </c>
       <c r="D100" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="E100" t="n">
         <v>17.68</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>18.17</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>19.45</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>18.2875</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>17.025</v>
       </c>
-      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -3042,21 +3344,24 @@
         <v>17.45</v>
       </c>
       <c r="D101" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="E101" t="n">
         <v>17.47</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>18.17</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>19.45</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>18.425</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>17.13</v>
       </c>
-      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -3069,21 +3374,24 @@
         <v>17.42</v>
       </c>
       <c r="D102" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="E102" t="n">
         <v>17.56</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>18.17</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>19.45</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>18.935</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>17.64</v>
       </c>
-      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -3096,21 +3404,24 @@
         <v>17.1</v>
       </c>
       <c r="D103" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="E103" t="n">
         <v>17.17</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>17.8375</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>18.745</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>19.06</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>17.765</v>
       </c>
-      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -3123,21 +3434,24 @@
         <v>16.5</v>
       </c>
       <c r="D104" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="E104" t="n">
         <v>16.58</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>17.345</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>18.405</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>19.06</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>17.765</v>
       </c>
-      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -3150,21 +3464,24 @@
         <v>16.01</v>
       </c>
       <c r="D105" t="n">
+        <v>16.12</v>
+      </c>
+      <c r="E105" t="n">
         <v>16.09</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>16.965</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>18.16</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>19.2775</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>17.765</v>
       </c>
-      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -3177,21 +3494,24 @@
         <v>15.95</v>
       </c>
       <c r="D106" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="E106" t="n">
         <v>16.25</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>16.93</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>18.13</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>19.2</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>17.765</v>
       </c>
-      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -3204,21 +3524,24 @@
         <v>15.664</v>
       </c>
       <c r="D107" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E107" t="n">
         <v>15.98</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>16.787</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>17.987</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>19.2</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>17.765</v>
       </c>
-      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -3231,21 +3554,24 @@
         <v>16.14</v>
       </c>
       <c r="D108" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="E108" t="n">
         <v>16.67</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>16.787</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>17.977</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>19.2</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>17.765</v>
       </c>
-      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -3258,21 +3584,24 @@
         <v>16.28</v>
       </c>
       <c r="D109" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E109" t="n">
         <v>16.39</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>16.787</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>17.977</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>19.2</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>17.765</v>
       </c>
-      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -3285,21 +3614,24 @@
         <v>16.4</v>
       </c>
       <c r="D110" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E110" t="n">
         <v>16.79</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>16.752</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>17.782</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>19.2</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>17.765</v>
       </c>
-      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -3312,21 +3644,24 @@
         <v>16.17</v>
       </c>
       <c r="D111" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="E111" t="n">
         <v>16.68</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>16.652</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>17.407</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>19.1125</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>17.765</v>
       </c>
-      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -3339,21 +3674,24 @@
         <v>16.62</v>
       </c>
       <c r="D112" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="E112" t="n">
         <v>16.76</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>16.362</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>17.407</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>18.6825</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>17.835</v>
       </c>
-      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -3366,21 +3704,24 @@
         <v>16.29</v>
       </c>
       <c r="D113" t="n">
+        <v>16.59</v>
+      </c>
+      <c r="E113" t="n">
         <v>16.53</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>16.362</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>17.407</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>18.4225</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>17.835</v>
       </c>
-      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -3393,21 +3734,24 @@
         <v>16.05</v>
       </c>
       <c r="D114" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="E114" t="n">
         <v>16.39</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>16.362</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>17.407</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>18.4225</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>17.865</v>
       </c>
-      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -3420,21 +3764,24 @@
         <v>16.1</v>
       </c>
       <c r="D115" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="E115" t="n">
         <v>16.4</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>16.362</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>17.407</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>19.065</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>18.005</v>
       </c>
-      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -3447,21 +3794,24 @@
         <v>16.15</v>
       </c>
       <c r="D116" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="E116" t="n">
         <v>16.78</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>16.555</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>17.407</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>19.065</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>18.165</v>
       </c>
-      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -3474,21 +3824,24 @@
         <v>17.43</v>
       </c>
       <c r="D117" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="E117" t="n">
         <v>17.6</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>17.20015</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>17.407</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>19.06</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>18.165</v>
       </c>
-      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -3501,21 +3854,24 @@
         <v>17.2</v>
       </c>
       <c r="D118" t="n">
+        <v>17.64</v>
+      </c>
+      <c r="E118" t="n">
         <v>17.33</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>17.20015</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>17.407</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>19.06</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>18.165</v>
       </c>
-      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -3528,21 +3884,24 @@
         <v>16.735</v>
       </c>
       <c r="D119" t="n">
+        <v>17.51</v>
+      </c>
+      <c r="E119" t="n">
         <v>16.75</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>17.20015</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>17.407</v>
       </c>
-      <c r="G119" t="n">
+      <c r="H119" t="n">
         <v>18.9625</v>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>18.165</v>
       </c>
-      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -3555,21 +3914,24 @@
         <v>16.31</v>
       </c>
       <c r="D120" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="E120" t="n">
         <v>16.46</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>17.20015</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>17.1195</v>
       </c>
-      <c r="G120" t="n">
+      <c r="H120" t="n">
         <v>18.775</v>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>18.165</v>
       </c>
-      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -3582,21 +3944,24 @@
         <v>16.34</v>
       </c>
       <c r="D121" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E121" t="n">
         <v>16.35</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>17.20015</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>17.00715</v>
       </c>
-      <c r="G121" t="n">
+      <c r="H121" t="n">
         <v>18.775</v>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>18.165</v>
       </c>
-      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -3609,21 +3974,24 @@
         <v>16.43</v>
       </c>
       <c r="D122" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="E122" t="n">
         <v>17.09</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>17.20015</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>17.00715</v>
       </c>
-      <c r="G122" t="n">
+      <c r="H122" t="n">
         <v>18.7825</v>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>18.165</v>
       </c>
-      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -3636,21 +4004,24 @@
         <v>16.66</v>
       </c>
       <c r="D123" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="E123" t="n">
         <v>16.74</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>17.22515</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>17.00715</v>
       </c>
-      <c r="G123" t="n">
+      <c r="H123" t="n">
         <v>18.785</v>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>18.165</v>
       </c>
-      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -3663,21 +4034,24 @@
         <v>16.07</v>
       </c>
       <c r="D124" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="E124" t="n">
         <v>16.09</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>17.21015</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>17.00715</v>
       </c>
-      <c r="G124" t="n">
+      <c r="H124" t="n">
         <v>18.81</v>
       </c>
-      <c r="H124" t="n">
+      <c r="I124" t="n">
         <v>18.165</v>
       </c>
-      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -3690,21 +4064,24 @@
         <v>16.03</v>
       </c>
       <c r="D125" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="E125" t="n">
         <v>16.33</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>17.19015</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>17.00715</v>
       </c>
-      <c r="G125" t="n">
+      <c r="H125" t="n">
         <v>18.81</v>
       </c>
-      <c r="H125" t="n">
+      <c r="I125" t="n">
         <v>18.165</v>
       </c>
-      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ichimoku_cloud/ichimoku_data/PLTR_180d_ichimoku.xlsx
+++ b/ichimoku_cloud/ichimoku_data/PLTR_180d_ichimoku.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,289 +491,289 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45145</v>
+        <v>45148</v>
       </c>
       <c r="B2" t="n">
-        <v>18.39</v>
+        <v>15.87</v>
       </c>
       <c r="C2" t="n">
-        <v>17.01</v>
+        <v>15.25</v>
       </c>
       <c r="D2" t="n">
-        <v>18.25</v>
+        <v>15.44</v>
       </c>
       <c r="E2" t="n">
-        <v>17.99</v>
+        <v>15.41</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>15.6</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45146</v>
+        <v>45149</v>
       </c>
       <c r="B3" t="n">
-        <v>17.49</v>
+        <v>15.58</v>
       </c>
       <c r="C3" t="n">
-        <v>16.1</v>
+        <v>14.91</v>
       </c>
       <c r="D3" t="n">
-        <v>17.49</v>
+        <v>15.05</v>
       </c>
       <c r="E3" t="n">
-        <v>17.04</v>
+        <v>15.41</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>15.83</v>
+        <v>15.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45147</v>
+        <v>45152</v>
       </c>
       <c r="B4" t="n">
-        <v>16.92</v>
+        <v>15.74</v>
       </c>
       <c r="C4" t="n">
-        <v>15.1</v>
+        <v>14.95</v>
       </c>
       <c r="D4" t="n">
-        <v>16.76</v>
+        <v>15.2</v>
       </c>
       <c r="E4" t="n">
-        <v>15.25</v>
+        <v>15.72</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>15.33</v>
+        <v>14.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45148</v>
+        <v>45153</v>
       </c>
       <c r="B5" t="n">
         <v>15.87</v>
       </c>
       <c r="C5" t="n">
-        <v>15.25</v>
+        <v>15.29</v>
       </c>
       <c r="D5" t="n">
-        <v>15.44</v>
+        <v>15.61</v>
       </c>
       <c r="E5" t="n">
-        <v>15.41</v>
+        <v>15.37</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>15.46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45149</v>
+        <v>45154</v>
       </c>
       <c r="B6" t="n">
-        <v>15.58</v>
+        <v>15.725</v>
       </c>
       <c r="C6" t="n">
-        <v>14.91</v>
+        <v>15.12</v>
       </c>
       <c r="D6" t="n">
-        <v>15.05</v>
+        <v>15.21</v>
       </c>
       <c r="E6" t="n">
-        <v>15.41</v>
+        <v>15.45</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>15.15</v>
+        <v>14.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45152</v>
+        <v>45155</v>
       </c>
       <c r="B7" t="n">
-        <v>15.74</v>
+        <v>15.4373</v>
       </c>
       <c r="C7" t="n">
-        <v>14.95</v>
+        <v>14.035</v>
       </c>
       <c r="D7" t="n">
-        <v>15.2</v>
+        <v>15.39</v>
       </c>
       <c r="E7" t="n">
-        <v>15.72</v>
+        <v>14.15</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>14.74</v>
+        <v>14.22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45153</v>
+        <v>45156</v>
       </c>
       <c r="B8" t="n">
-        <v>15.87</v>
+        <v>14.6</v>
       </c>
       <c r="C8" t="n">
-        <v>15.29</v>
+        <v>13.68</v>
       </c>
       <c r="D8" t="n">
-        <v>15.61</v>
+        <v>13.88</v>
       </c>
       <c r="E8" t="n">
-        <v>15.37</v>
+        <v>14.4</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>14</v>
+        <v>13.96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45154</v>
+        <v>45159</v>
       </c>
       <c r="B9" t="n">
-        <v>15.725</v>
+        <v>14.78</v>
       </c>
       <c r="C9" t="n">
-        <v>15.12</v>
+        <v>14.34</v>
       </c>
       <c r="D9" t="n">
-        <v>15.21</v>
+        <v>14.42</v>
       </c>
       <c r="E9" t="n">
-        <v>15.45</v>
+        <v>14.5</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>14.13</v>
+        <v>14.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45155</v>
+        <v>45160</v>
       </c>
       <c r="B10" t="n">
-        <v>15.4373</v>
+        <v>15.13</v>
       </c>
       <c r="C10" t="n">
-        <v>14.035</v>
+        <v>14.63</v>
       </c>
       <c r="D10" t="n">
-        <v>15.39</v>
+        <v>14.76</v>
       </c>
       <c r="E10" t="n">
-        <v>14.15</v>
+        <v>14.67</v>
       </c>
       <c r="F10" t="n">
-        <v>16.2125</v>
+        <v>14.775</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>14.22</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B11" t="n">
-        <v>14.6</v>
+        <v>15.47</v>
       </c>
       <c r="C11" t="n">
-        <v>13.68</v>
+        <v>14.42</v>
       </c>
       <c r="D11" t="n">
-        <v>13.88</v>
+        <v>14.5</v>
       </c>
       <c r="E11" t="n">
-        <v>14.4</v>
+        <v>15.3</v>
       </c>
       <c r="F11" t="n">
-        <v>15.585</v>
+        <v>14.775</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>13.96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45159</v>
+        <v>45162</v>
       </c>
       <c r="B12" t="n">
-        <v>14.78</v>
+        <v>15.71</v>
       </c>
       <c r="C12" t="n">
-        <v>14.34</v>
+        <v>13.875</v>
       </c>
       <c r="D12" t="n">
-        <v>14.42</v>
+        <v>15.7</v>
       </c>
       <c r="E12" t="n">
-        <v>14.5</v>
+        <v>14.14</v>
       </c>
       <c r="F12" t="n">
-        <v>15.3</v>
+        <v>14.775</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>14.85</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45160</v>
+        <v>45163</v>
       </c>
       <c r="B13" t="n">
-        <v>15.13</v>
+        <v>14.6499</v>
       </c>
       <c r="C13" t="n">
-        <v>14.63</v>
+        <v>14.01</v>
       </c>
       <c r="D13" t="n">
-        <v>14.76</v>
+        <v>14.14</v>
       </c>
       <c r="E13" t="n">
-        <v>14.67</v>
+        <v>14.53</v>
       </c>
       <c r="F13" t="n">
         <v>14.775</v>
@@ -782,180 +782,180 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>15.77</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45161</v>
+        <v>45166</v>
       </c>
       <c r="B14" t="n">
-        <v>15.47</v>
+        <v>14.88</v>
       </c>
       <c r="C14" t="n">
-        <v>14.42</v>
+        <v>14.5</v>
       </c>
       <c r="D14" t="n">
-        <v>14.5</v>
+        <v>14.69</v>
       </c>
       <c r="E14" t="n">
-        <v>15.3</v>
+        <v>14.64</v>
       </c>
       <c r="F14" t="n">
-        <v>14.775</v>
+        <v>14.7025</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>16</v>
+        <v>15.73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45162</v>
+        <v>45167</v>
       </c>
       <c r="B15" t="n">
-        <v>15.71</v>
+        <v>15.63</v>
       </c>
       <c r="C15" t="n">
-        <v>13.875</v>
+        <v>14.5</v>
       </c>
       <c r="D15" t="n">
-        <v>15.7</v>
+        <v>14.6</v>
       </c>
       <c r="E15" t="n">
-        <v>14.14</v>
+        <v>15.4</v>
       </c>
       <c r="F15" t="n">
-        <v>14.775</v>
+        <v>14.695</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>15.88</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45163</v>
+        <v>45168</v>
       </c>
       <c r="B16" t="n">
-        <v>14.6499</v>
+        <v>16.35</v>
       </c>
       <c r="C16" t="n">
-        <v>14.01</v>
+        <v>15.33</v>
       </c>
       <c r="D16" t="n">
-        <v>14.14</v>
+        <v>15.46</v>
       </c>
       <c r="E16" t="n">
-        <v>14.53</v>
+        <v>16.33</v>
       </c>
       <c r="F16" t="n">
-        <v>14.775</v>
+        <v>15.015</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>14.9</v>
+        <v>16.61</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45166</v>
+        <v>45169</v>
       </c>
       <c r="B17" t="n">
-        <v>14.88</v>
+        <v>15.85</v>
       </c>
       <c r="C17" t="n">
-        <v>14.5</v>
+        <v>14.65</v>
       </c>
       <c r="D17" t="n">
-        <v>14.69</v>
+        <v>15.6</v>
       </c>
       <c r="E17" t="n">
-        <v>14.64</v>
+        <v>14.98</v>
       </c>
       <c r="F17" t="n">
-        <v>14.7025</v>
+        <v>15.1125</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>15.73</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45167</v>
+        <v>45170</v>
       </c>
       <c r="B18" t="n">
-        <v>15.63</v>
+        <v>15.365</v>
       </c>
       <c r="C18" t="n">
-        <v>14.5</v>
+        <v>14.83</v>
       </c>
       <c r="D18" t="n">
-        <v>14.6</v>
+        <v>15.16</v>
       </c>
       <c r="E18" t="n">
-        <v>15.4</v>
+        <v>15.18</v>
       </c>
       <c r="F18" t="n">
-        <v>14.695</v>
+        <v>15.1125</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>15.81</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45168</v>
+        <v>45174</v>
       </c>
       <c r="B19" t="n">
-        <v>16.35</v>
+        <v>15.42</v>
       </c>
       <c r="C19" t="n">
-        <v>15.33</v>
+        <v>14.9</v>
       </c>
       <c r="D19" t="n">
-        <v>15.46</v>
+        <v>15.08</v>
       </c>
       <c r="E19" t="n">
-        <v>16.33</v>
+        <v>15.21</v>
       </c>
       <c r="F19" t="n">
-        <v>15.015</v>
+        <v>15.1125</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>16.61</v>
+        <v>17.92</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45169</v>
+        <v>45175</v>
       </c>
       <c r="B20" t="n">
-        <v>15.85</v>
+        <v>15.62</v>
       </c>
       <c r="C20" t="n">
-        <v>14.65</v>
+        <v>15.08</v>
       </c>
       <c r="D20" t="n">
-        <v>15.6</v>
+        <v>15.17</v>
       </c>
       <c r="E20" t="n">
-        <v>14.98</v>
+        <v>15.3</v>
       </c>
       <c r="F20" t="n">
         <v>15.1125</v>
@@ -964,267 +964,267 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>17.61</v>
+        <v>17.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B21" t="n">
-        <v>15.365</v>
+        <v>15.24</v>
       </c>
       <c r="C21" t="n">
-        <v>14.83</v>
+        <v>14.29</v>
       </c>
       <c r="D21" t="n">
-        <v>15.16</v>
+        <v>14.88</v>
       </c>
       <c r="E21" t="n">
+        <v>15.21</v>
+      </c>
+      <c r="F21" t="n">
         <v>15.18</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15.1125</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>17.8</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45174</v>
+        <v>45177</v>
       </c>
       <c r="B22" t="n">
-        <v>15.42</v>
+        <v>15.61</v>
       </c>
       <c r="C22" t="n">
-        <v>14.9</v>
+        <v>15.085</v>
       </c>
       <c r="D22" t="n">
-        <v>15.08</v>
+        <v>15.12</v>
       </c>
       <c r="E22" t="n">
-        <v>15.21</v>
+        <v>15.13</v>
       </c>
       <c r="F22" t="n">
-        <v>15.1125</v>
+        <v>15.32</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>17.92</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45175</v>
+        <v>45180</v>
       </c>
       <c r="B23" t="n">
-        <v>15.62</v>
+        <v>16.1</v>
       </c>
       <c r="C23" t="n">
-        <v>15.08</v>
+        <v>15.36</v>
       </c>
       <c r="D23" t="n">
-        <v>15.17</v>
+        <v>15.41</v>
       </c>
       <c r="E23" t="n">
-        <v>15.3</v>
+        <v>15.79</v>
       </c>
       <c r="F23" t="n">
-        <v>15.1125</v>
+        <v>15.32</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>17.94</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45176</v>
+        <v>45181</v>
       </c>
       <c r="B24" t="n">
-        <v>15.24</v>
+        <v>16.15</v>
       </c>
       <c r="C24" t="n">
-        <v>14.29</v>
+        <v>15.43</v>
       </c>
       <c r="D24" t="n">
-        <v>14.88</v>
+        <v>15.46</v>
       </c>
       <c r="E24" t="n">
-        <v>15.21</v>
+        <v>15.59</v>
       </c>
       <c r="F24" t="n">
-        <v>15.18</v>
+        <v>15.32</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>17.36</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45177</v>
+        <v>45182</v>
       </c>
       <c r="B25" t="n">
-        <v>15.61</v>
+        <v>15.8496</v>
       </c>
       <c r="C25" t="n">
-        <v>15.085</v>
+        <v>15.42</v>
       </c>
       <c r="D25" t="n">
-        <v>15.12</v>
+        <v>15.63</v>
       </c>
       <c r="E25" t="n">
-        <v>15.13</v>
+        <v>15.6</v>
       </c>
       <c r="F25" t="n">
-        <v>15.32</v>
+        <v>15.22</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>17.36</v>
+        <v>17.06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45180</v>
+        <v>45183</v>
       </c>
       <c r="B26" t="n">
-        <v>16.1</v>
+        <v>16.04</v>
       </c>
       <c r="C26" t="n">
-        <v>15.36</v>
+        <v>15.47</v>
       </c>
       <c r="D26" t="n">
-        <v>15.41</v>
+        <v>15.69</v>
       </c>
       <c r="E26" t="n">
-        <v>15.79</v>
+        <v>15.83</v>
       </c>
       <c r="F26" t="n">
-        <v>15.32</v>
+        <v>15.22</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>17.84</v>
+        <v>16.11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45181</v>
+        <v>45184</v>
       </c>
       <c r="B27" t="n">
-        <v>16.15</v>
+        <v>15.9</v>
       </c>
       <c r="C27" t="n">
-        <v>15.43</v>
+        <v>15.17</v>
       </c>
       <c r="D27" t="n">
-        <v>15.46</v>
+        <v>15.77</v>
       </c>
       <c r="E27" t="n">
-        <v>15.59</v>
+        <v>15.33</v>
       </c>
       <c r="F27" t="n">
-        <v>15.32</v>
+        <v>15.22</v>
       </c>
       <c r="G27" t="n">
-        <v>16.035</v>
+        <v>15.015</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45182</v>
+        <v>45187</v>
       </c>
       <c r="B28" t="n">
-        <v>15.8496</v>
+        <v>15.63</v>
       </c>
       <c r="C28" t="n">
-        <v>15.42</v>
+        <v>15.07</v>
       </c>
       <c r="D28" t="n">
-        <v>15.63</v>
+        <v>15.18</v>
       </c>
       <c r="E28" t="n">
-        <v>15.6</v>
+        <v>15.46</v>
       </c>
       <c r="F28" t="n">
         <v>15.22</v>
       </c>
       <c r="G28" t="n">
-        <v>15.585</v>
+        <v>15.015</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>17.06</v>
+        <v>16.64</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45183</v>
+        <v>45188</v>
       </c>
       <c r="B29" t="n">
-        <v>16.04</v>
+        <v>15.519</v>
       </c>
       <c r="C29" t="n">
-        <v>15.47</v>
+        <v>14.95</v>
       </c>
       <c r="D29" t="n">
-        <v>15.69</v>
+        <v>15.34</v>
       </c>
       <c r="E29" t="n">
-        <v>15.83</v>
+        <v>15.15</v>
       </c>
       <c r="F29" t="n">
         <v>15.22</v>
       </c>
       <c r="G29" t="n">
-        <v>15.3</v>
+        <v>15.015</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>16.11</v>
+        <v>15.59</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45184</v>
+        <v>45189</v>
       </c>
       <c r="B30" t="n">
-        <v>15.9</v>
+        <v>15.425</v>
       </c>
       <c r="C30" t="n">
-        <v>15.17</v>
+        <v>14.7325</v>
       </c>
       <c r="D30" t="n">
-        <v>15.77</v>
+        <v>15.25</v>
       </c>
       <c r="E30" t="n">
-        <v>15.33</v>
+        <v>14.74</v>
       </c>
       <c r="F30" t="n">
-        <v>15.22</v>
+        <v>15.44125</v>
       </c>
       <c r="G30" t="n">
         <v>15.015</v>
@@ -1232,27 +1232,27 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>16.2</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45187</v>
+        <v>45190</v>
       </c>
       <c r="B31" t="n">
-        <v>15.63</v>
+        <v>14.599</v>
       </c>
       <c r="C31" t="n">
-        <v>15.07</v>
+        <v>13.68</v>
       </c>
       <c r="D31" t="n">
-        <v>15.18</v>
+        <v>14.34</v>
       </c>
       <c r="E31" t="n">
-        <v>15.46</v>
+        <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>15.22</v>
+        <v>14.915</v>
       </c>
       <c r="G31" t="n">
         <v>15.015</v>
@@ -1260,27 +1260,27 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>16.64</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45188</v>
+        <v>45191</v>
       </c>
       <c r="B32" t="n">
-        <v>15.519</v>
+        <v>14.415</v>
       </c>
       <c r="C32" t="n">
-        <v>14.95</v>
+        <v>14.03</v>
       </c>
       <c r="D32" t="n">
-        <v>15.34</v>
+        <v>14.23</v>
       </c>
       <c r="E32" t="n">
-        <v>15.15</v>
+        <v>14.13</v>
       </c>
       <c r="F32" t="n">
-        <v>15.22</v>
+        <v>14.915</v>
       </c>
       <c r="G32" t="n">
         <v>15.015</v>
@@ -1288,27 +1288,27 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>15.59</v>
+        <v>14.69</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45189</v>
+        <v>45194</v>
       </c>
       <c r="B33" t="n">
-        <v>15.425</v>
+        <v>14.24</v>
       </c>
       <c r="C33" t="n">
-        <v>14.7325</v>
+        <v>13.82</v>
       </c>
       <c r="D33" t="n">
-        <v>15.25</v>
+        <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>14.74</v>
+        <v>14.22</v>
       </c>
       <c r="F33" t="n">
-        <v>15.44125</v>
+        <v>14.86</v>
       </c>
       <c r="G33" t="n">
         <v>15.015</v>
@@ -1316,27 +1316,27 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>15.29</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45190</v>
+        <v>45195</v>
       </c>
       <c r="B34" t="n">
-        <v>14.599</v>
+        <v>14.17</v>
       </c>
       <c r="C34" t="n">
-        <v>13.68</v>
+        <v>13.88</v>
       </c>
       <c r="D34" t="n">
-        <v>14.34</v>
+        <v>13.95</v>
       </c>
       <c r="E34" t="n">
-        <v>14</v>
+        <v>13.96</v>
       </c>
       <c r="F34" t="n">
-        <v>14.915</v>
+        <v>14.86</v>
       </c>
       <c r="G34" t="n">
         <v>15.015</v>
@@ -1344,27 +1344,27 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>15.07</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="B35" t="n">
-        <v>14.415</v>
+        <v>14.96</v>
       </c>
       <c r="C35" t="n">
-        <v>14.03</v>
+        <v>14.16</v>
       </c>
       <c r="D35" t="n">
-        <v>14.23</v>
+        <v>14.2</v>
       </c>
       <c r="E35" t="n">
-        <v>14.13</v>
+        <v>14.85</v>
       </c>
       <c r="F35" t="n">
-        <v>14.915</v>
+        <v>14.79</v>
       </c>
       <c r="G35" t="n">
         <v>15.015</v>
@@ -1372,27 +1372,27 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>14.69</v>
+        <v>17.97</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45194</v>
+        <v>45197</v>
       </c>
       <c r="B36" t="n">
-        <v>14.24</v>
+        <v>15.96</v>
       </c>
       <c r="C36" t="n">
-        <v>13.82</v>
+        <v>14.825</v>
       </c>
       <c r="D36" t="n">
-        <v>14</v>
+        <v>15.14</v>
       </c>
       <c r="E36" t="n">
-        <v>14.22</v>
+        <v>15.77</v>
       </c>
       <c r="F36" t="n">
-        <v>14.86</v>
+        <v>14.82</v>
       </c>
       <c r="G36" t="n">
         <v>15.015</v>
@@ -1400,111 +1400,111 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>14.8</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45195</v>
+        <v>45198</v>
       </c>
       <c r="B37" t="n">
-        <v>14.17</v>
+        <v>16.81</v>
       </c>
       <c r="C37" t="n">
-        <v>13.88</v>
+        <v>15.96</v>
       </c>
       <c r="D37" t="n">
-        <v>13.95</v>
+        <v>16.11</v>
       </c>
       <c r="E37" t="n">
-        <v>13.96</v>
+        <v>16</v>
       </c>
       <c r="F37" t="n">
-        <v>14.86</v>
+        <v>15.245</v>
       </c>
       <c r="G37" t="n">
-        <v>15.015</v>
+        <v>15.245</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>14.92</v>
+        <v>18.54</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45196</v>
+        <v>45201</v>
       </c>
       <c r="B38" t="n">
-        <v>14.96</v>
+        <v>16.44</v>
       </c>
       <c r="C38" t="n">
-        <v>14.16</v>
+        <v>15.77</v>
       </c>
       <c r="D38" t="n">
-        <v>14.2</v>
+        <v>16.03</v>
       </c>
       <c r="E38" t="n">
-        <v>14.85</v>
+        <v>15.88</v>
       </c>
       <c r="F38" t="n">
-        <v>14.79</v>
+        <v>15.245</v>
       </c>
       <c r="G38" t="n">
-        <v>15.015</v>
+        <v>15.245</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>17.97</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45197</v>
+        <v>45202</v>
       </c>
       <c r="B39" t="n">
-        <v>15.96</v>
+        <v>15.77</v>
       </c>
       <c r="C39" t="n">
-        <v>14.825</v>
+        <v>14.82</v>
       </c>
       <c r="D39" t="n">
-        <v>15.14</v>
+        <v>15.61</v>
       </c>
       <c r="E39" t="n">
-        <v>15.77</v>
+        <v>14.9</v>
       </c>
       <c r="F39" t="n">
-        <v>14.82</v>
+        <v>15.245</v>
       </c>
       <c r="G39" t="n">
-        <v>15.015</v>
+        <v>15.245</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>18.89</v>
+        <v>18.49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45198</v>
+        <v>45203</v>
       </c>
       <c r="B40" t="n">
-        <v>16.81</v>
+        <v>15.85</v>
       </c>
       <c r="C40" t="n">
-        <v>15.96</v>
+        <v>15.16</v>
       </c>
       <c r="D40" t="n">
-        <v>16.11</v>
+        <v>15.46</v>
       </c>
       <c r="E40" t="n">
-        <v>16</v>
+        <v>15.73</v>
       </c>
       <c r="F40" t="n">
-        <v>15.245</v>
+        <v>15.315</v>
       </c>
       <c r="G40" t="n">
         <v>15.245</v>
@@ -1512,27 +1512,27 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>18.54</v>
+        <v>18.27</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45201</v>
+        <v>45204</v>
       </c>
       <c r="B41" t="n">
-        <v>16.44</v>
+        <v>15.9</v>
       </c>
       <c r="C41" t="n">
-        <v>15.77</v>
+        <v>15.41</v>
       </c>
       <c r="D41" t="n">
-        <v>16.03</v>
+        <v>15.59</v>
       </c>
       <c r="E41" t="n">
-        <v>15.88</v>
+        <v>15.81</v>
       </c>
       <c r="F41" t="n">
-        <v>15.245</v>
+        <v>15.315</v>
       </c>
       <c r="G41" t="n">
         <v>15.245</v>
@@ -1540,27 +1540,27 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>18.8</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45202</v>
+        <v>45205</v>
       </c>
       <c r="B42" t="n">
-        <v>15.77</v>
+        <v>16.695</v>
       </c>
       <c r="C42" t="n">
-        <v>14.82</v>
+        <v>15.51</v>
       </c>
       <c r="D42" t="n">
-        <v>15.61</v>
+        <v>15.56</v>
       </c>
       <c r="E42" t="n">
-        <v>14.9</v>
+        <v>16.61</v>
       </c>
       <c r="F42" t="n">
-        <v>15.245</v>
+        <v>15.345</v>
       </c>
       <c r="G42" t="n">
         <v>15.245</v>
@@ -1568,167 +1568,167 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>18.49</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45203</v>
+        <v>45208</v>
       </c>
       <c r="B43" t="n">
-        <v>15.85</v>
+        <v>17.83</v>
       </c>
       <c r="C43" t="n">
-        <v>15.16</v>
+        <v>16.22</v>
       </c>
       <c r="D43" t="n">
-        <v>15.46</v>
+        <v>16.27</v>
       </c>
       <c r="E43" t="n">
-        <v>15.73</v>
+        <v>17.61</v>
       </c>
       <c r="F43" t="n">
-        <v>15.315</v>
+        <v>15.995</v>
       </c>
       <c r="G43" t="n">
-        <v>15.245</v>
+        <v>15.755</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>18.27</v>
+        <v>19.94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45204</v>
+        <v>45209</v>
       </c>
       <c r="B44" t="n">
-        <v>15.9</v>
+        <v>18.4</v>
       </c>
       <c r="C44" t="n">
-        <v>15.41</v>
+        <v>17.62</v>
       </c>
       <c r="D44" t="n">
-        <v>15.59</v>
+        <v>18.06</v>
       </c>
       <c r="E44" t="n">
-        <v>15.81</v>
+        <v>17.8</v>
       </c>
       <c r="F44" t="n">
-        <v>15.315</v>
+        <v>16.61</v>
       </c>
       <c r="G44" t="n">
-        <v>15.245</v>
+        <v>16.04</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>19.67</v>
+        <v>19.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45205</v>
+        <v>45210</v>
       </c>
       <c r="B45" t="n">
-        <v>16.695</v>
+        <v>18.44</v>
       </c>
       <c r="C45" t="n">
-        <v>15.51</v>
+        <v>17.73</v>
       </c>
       <c r="D45" t="n">
-        <v>15.56</v>
+        <v>17.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.61</v>
+        <v>17.92</v>
       </c>
       <c r="F45" t="n">
-        <v>15.345</v>
+        <v>16.63</v>
       </c>
       <c r="G45" t="n">
-        <v>15.245</v>
+        <v>16.06</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>19.71</v>
+        <v>19.77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45208</v>
+        <v>45211</v>
       </c>
       <c r="B46" t="n">
-        <v>17.83</v>
+        <v>18.24</v>
       </c>
       <c r="C46" t="n">
-        <v>16.22</v>
+        <v>17.5508</v>
       </c>
       <c r="D46" t="n">
-        <v>16.27</v>
+        <v>17.92</v>
       </c>
       <c r="E46" t="n">
-        <v>17.61</v>
+        <v>17.94</v>
       </c>
       <c r="F46" t="n">
-        <v>15.995</v>
+        <v>16.63</v>
       </c>
       <c r="G46" t="n">
-        <v>15.755</v>
+        <v>16.06</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>19.94</v>
+        <v>20.49</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="B47" t="n">
-        <v>18.4</v>
+        <v>18.16</v>
       </c>
       <c r="C47" t="n">
-        <v>17.62</v>
+        <v>17.27</v>
       </c>
       <c r="D47" t="n">
         <v>18.06</v>
       </c>
       <c r="E47" t="n">
-        <v>17.8</v>
+        <v>17.36</v>
       </c>
       <c r="F47" t="n">
-        <v>16.61</v>
+        <v>16.63</v>
       </c>
       <c r="G47" t="n">
-        <v>16.04</v>
+        <v>16.06</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>19.95</v>
+        <v>21.34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45210</v>
+        <v>45215</v>
       </c>
       <c r="B48" t="n">
-        <v>18.44</v>
+        <v>17.46</v>
       </c>
       <c r="C48" t="n">
-        <v>17.73</v>
+        <v>16.67</v>
       </c>
       <c r="D48" t="n">
-        <v>17.87</v>
+        <v>17.21</v>
       </c>
       <c r="E48" t="n">
-        <v>17.92</v>
+        <v>17.36</v>
       </c>
       <c r="F48" t="n">
-        <v>16.63</v>
+        <v>16.8</v>
       </c>
       <c r="G48" t="n">
         <v>16.06</v>
@@ -1736,27 +1736,27 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>19.77</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45211</v>
+        <v>45216</v>
       </c>
       <c r="B49" t="n">
-        <v>18.24</v>
+        <v>18.03</v>
       </c>
       <c r="C49" t="n">
-        <v>17.5508</v>
+        <v>16.91</v>
       </c>
       <c r="D49" t="n">
-        <v>17.92</v>
+        <v>17</v>
       </c>
       <c r="E49" t="n">
-        <v>17.94</v>
+        <v>17.84</v>
       </c>
       <c r="F49" t="n">
-        <v>16.63</v>
+        <v>16.925</v>
       </c>
       <c r="G49" t="n">
         <v>16.06</v>
@@ -1764,27 +1764,27 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>20.49</v>
+        <v>19.69</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45212</v>
+        <v>45217</v>
       </c>
       <c r="B50" t="n">
-        <v>18.16</v>
+        <v>18.22</v>
       </c>
       <c r="C50" t="n">
-        <v>17.27</v>
+        <v>17.19</v>
       </c>
       <c r="D50" t="n">
-        <v>18.06</v>
+        <v>17.81</v>
       </c>
       <c r="E50" t="n">
-        <v>17.36</v>
+        <v>17.2</v>
       </c>
       <c r="F50" t="n">
-        <v>16.63</v>
+        <v>16.975</v>
       </c>
       <c r="G50" t="n">
         <v>16.06</v>
@@ -1792,27 +1792,27 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>21.34</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45215</v>
+        <v>45218</v>
       </c>
       <c r="B51" t="n">
-        <v>17.46</v>
+        <v>17.5799</v>
       </c>
       <c r="C51" t="n">
-        <v>16.67</v>
+        <v>16.97</v>
       </c>
       <c r="D51" t="n">
-        <v>17.21</v>
+        <v>17.44</v>
       </c>
       <c r="E51" t="n">
-        <v>17.36</v>
+        <v>17.06</v>
       </c>
       <c r="F51" t="n">
-        <v>16.8</v>
+        <v>17.33</v>
       </c>
       <c r="G51" t="n">
         <v>16.06</v>
@@ -1820,27 +1820,27 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>19.8</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45216</v>
+        <v>45219</v>
       </c>
       <c r="B52" t="n">
-        <v>18.03</v>
+        <v>16.94</v>
       </c>
       <c r="C52" t="n">
-        <v>16.91</v>
+        <v>15.81</v>
       </c>
       <c r="D52" t="n">
-        <v>17</v>
+        <v>16.85</v>
       </c>
       <c r="E52" t="n">
-        <v>17.84</v>
+        <v>16.11</v>
       </c>
       <c r="F52" t="n">
-        <v>16.925</v>
+        <v>17.125</v>
       </c>
       <c r="G52" t="n">
         <v>16.06</v>
@@ -1848,836 +1848,836 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>19.69</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45217</v>
+        <v>45222</v>
       </c>
       <c r="B53" t="n">
-        <v>18.22</v>
+        <v>16.34</v>
       </c>
       <c r="C53" t="n">
-        <v>17.19</v>
+        <v>15.21</v>
       </c>
       <c r="D53" t="n">
-        <v>17.81</v>
+        <v>15.9</v>
       </c>
       <c r="E53" t="n">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
       <c r="F53" t="n">
-        <v>16.975</v>
+        <v>16.825</v>
       </c>
       <c r="G53" t="n">
         <v>16.06</v>
       </c>
       <c r="H53" t="n">
-        <v>15.6775</v>
+        <v>15.1175</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>19.2</v>
+        <v>19.84</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45218</v>
+        <v>45223</v>
       </c>
       <c r="B54" t="n">
-        <v>17.5799</v>
+        <v>16.93</v>
       </c>
       <c r="C54" t="n">
-        <v>16.97</v>
+        <v>16.3</v>
       </c>
       <c r="D54" t="n">
-        <v>17.44</v>
+        <v>16.38</v>
       </c>
       <c r="E54" t="n">
-        <v>17.06</v>
+        <v>16.64</v>
       </c>
       <c r="F54" t="n">
-        <v>17.33</v>
+        <v>16.725</v>
       </c>
       <c r="G54" t="n">
         <v>16.06</v>
       </c>
       <c r="H54" t="n">
-        <v>15.4025</v>
+        <v>15.1175</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>19.08</v>
+        <v>20.05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="B55" t="n">
-        <v>16.94</v>
+        <v>16.63</v>
       </c>
       <c r="C55" t="n">
-        <v>15.81</v>
+        <v>15.58</v>
       </c>
       <c r="D55" t="n">
-        <v>16.85</v>
+        <v>16.57</v>
       </c>
       <c r="E55" t="n">
-        <v>16.11</v>
+        <v>15.59</v>
       </c>
       <c r="F55" t="n">
-        <v>17.125</v>
+        <v>16.715</v>
       </c>
       <c r="G55" t="n">
         <v>16.06</v>
       </c>
       <c r="H55" t="n">
-        <v>15.26</v>
+        <v>15.1175</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>19.71</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B56" t="n">
-        <v>16.34</v>
+        <v>15.91</v>
       </c>
       <c r="C56" t="n">
-        <v>15.21</v>
+        <v>15.05</v>
       </c>
       <c r="D56" t="n">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="E56" t="n">
-        <v>16.2</v>
+        <v>15.29</v>
       </c>
       <c r="F56" t="n">
-        <v>16.825</v>
+        <v>16.635</v>
       </c>
       <c r="G56" t="n">
         <v>16.06</v>
       </c>
       <c r="H56" t="n">
-        <v>15.1175</v>
+        <v>15.228125</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>19.84</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45223</v>
+        <v>45226</v>
       </c>
       <c r="B57" t="n">
-        <v>16.93</v>
+        <v>15.6</v>
       </c>
       <c r="C57" t="n">
-        <v>16.3</v>
+        <v>14.96</v>
       </c>
       <c r="D57" t="n">
-        <v>16.38</v>
+        <v>15.48</v>
       </c>
       <c r="E57" t="n">
-        <v>16.64</v>
+        <v>15.07</v>
       </c>
       <c r="F57" t="n">
-        <v>16.725</v>
+        <v>16.59</v>
       </c>
       <c r="G57" t="n">
-        <v>16.06</v>
+        <v>16.13</v>
       </c>
       <c r="H57" t="n">
-        <v>15.1175</v>
+        <v>14.965</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>20.05</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45224</v>
+        <v>45229</v>
       </c>
       <c r="B58" t="n">
-        <v>16.63</v>
+        <v>15.29</v>
       </c>
       <c r="C58" t="n">
-        <v>15.58</v>
+        <v>14.56</v>
       </c>
       <c r="D58" t="n">
-        <v>16.57</v>
+        <v>15.27</v>
       </c>
       <c r="E58" t="n">
-        <v>15.59</v>
+        <v>14.69</v>
       </c>
       <c r="F58" t="n">
-        <v>16.715</v>
+        <v>16.39</v>
       </c>
       <c r="G58" t="n">
-        <v>16.06</v>
+        <v>16.13</v>
       </c>
       <c r="H58" t="n">
-        <v>15.1175</v>
+        <v>14.965</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>20.27</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B59" t="n">
-        <v>15.91</v>
+        <v>15.01</v>
       </c>
       <c r="C59" t="n">
-        <v>15.05</v>
+        <v>14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>15.6</v>
+        <v>14.58</v>
       </c>
       <c r="E59" t="n">
-        <v>15.29</v>
+        <v>14.8</v>
       </c>
       <c r="F59" t="n">
-        <v>16.635</v>
+        <v>16.06495</v>
       </c>
       <c r="G59" t="n">
-        <v>16.06</v>
+        <v>16.16</v>
       </c>
       <c r="H59" t="n">
-        <v>15.228125</v>
+        <v>14.9375</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>18.4</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45226</v>
+        <v>45231</v>
       </c>
       <c r="B60" t="n">
-        <v>15.6</v>
+        <v>14.96</v>
       </c>
       <c r="C60" t="n">
-        <v>14.96</v>
+        <v>14.48</v>
       </c>
       <c r="D60" t="n">
-        <v>15.48</v>
+        <v>14.8</v>
       </c>
       <c r="E60" t="n">
-        <v>15.07</v>
+        <v>14.92</v>
       </c>
       <c r="F60" t="n">
-        <v>16.59</v>
+        <v>15.71</v>
       </c>
       <c r="G60" t="n">
-        <v>16.13</v>
+        <v>16.3</v>
       </c>
       <c r="H60" t="n">
-        <v>14.965</v>
+        <v>14.9375</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>18.3</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45229</v>
+        <v>45232</v>
       </c>
       <c r="B61" t="n">
-        <v>15.29</v>
+        <v>18.3</v>
       </c>
       <c r="C61" t="n">
-        <v>14.56</v>
+        <v>17.2101</v>
       </c>
       <c r="D61" t="n">
-        <v>15.27</v>
+        <v>17.48</v>
       </c>
       <c r="E61" t="n">
-        <v>14.69</v>
+        <v>17.97</v>
       </c>
       <c r="F61" t="n">
         <v>16.39</v>
       </c>
       <c r="G61" t="n">
-        <v>16.13</v>
+        <v>16.46</v>
       </c>
       <c r="H61" t="n">
-        <v>14.965</v>
+        <v>14.9025</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>17.13</v>
+        <v>17.77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45230</v>
+        <v>45233</v>
       </c>
       <c r="B62" t="n">
-        <v>15.01</v>
+        <v>19.0789</v>
       </c>
       <c r="C62" t="n">
-        <v>14.55</v>
+        <v>17.76</v>
       </c>
       <c r="D62" t="n">
-        <v>14.58</v>
+        <v>18.02</v>
       </c>
       <c r="E62" t="n">
-        <v>14.8</v>
+        <v>18.89</v>
       </c>
       <c r="F62" t="n">
-        <v>16.06495</v>
+        <v>16.77945</v>
       </c>
       <c r="G62" t="n">
-        <v>16.16</v>
+        <v>16.77945</v>
       </c>
       <c r="H62" t="n">
-        <v>14.9375</v>
+        <v>14.9175</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>17.22</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45231</v>
+        <v>45236</v>
       </c>
       <c r="B63" t="n">
-        <v>14.96</v>
+        <v>19.08</v>
       </c>
       <c r="C63" t="n">
-        <v>14.48</v>
+        <v>17.93</v>
       </c>
       <c r="D63" t="n">
-        <v>14.8</v>
+        <v>18.99</v>
       </c>
       <c r="E63" t="n">
-        <v>14.92</v>
+        <v>18.54</v>
       </c>
       <c r="F63" t="n">
-        <v>15.71</v>
+        <v>16.78</v>
       </c>
       <c r="G63" t="n">
-        <v>16.3</v>
+        <v>16.78</v>
       </c>
       <c r="H63" t="n">
-        <v>14.9375</v>
+        <v>15.245</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>17.77</v>
+        <v>17.87</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45232</v>
+        <v>45237</v>
       </c>
       <c r="B64" t="n">
-        <v>18.3</v>
+        <v>19.17</v>
       </c>
       <c r="C64" t="n">
-        <v>17.2101</v>
+        <v>18.53</v>
       </c>
       <c r="D64" t="n">
-        <v>17.48</v>
+        <v>18.86</v>
       </c>
       <c r="E64" t="n">
-        <v>17.97</v>
+        <v>18.8</v>
       </c>
       <c r="F64" t="n">
-        <v>16.39</v>
+        <v>16.825</v>
       </c>
       <c r="G64" t="n">
-        <v>16.46</v>
+        <v>16.825</v>
       </c>
       <c r="H64" t="n">
-        <v>14.9025</v>
+        <v>15.245</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>17.77</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="B65" t="n">
-        <v>19.0789</v>
+        <v>18.93</v>
       </c>
       <c r="C65" t="n">
-        <v>17.76</v>
+        <v>18.15</v>
       </c>
       <c r="D65" t="n">
-        <v>18.02</v>
+        <v>18.85</v>
       </c>
       <c r="E65" t="n">
-        <v>18.89</v>
+        <v>18.49</v>
       </c>
       <c r="F65" t="n">
-        <v>16.77945</v>
+        <v>16.825</v>
       </c>
       <c r="G65" t="n">
-        <v>16.77945</v>
+        <v>16.825</v>
       </c>
       <c r="H65" t="n">
-        <v>14.9175</v>
+        <v>15.245</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>17.5</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45236</v>
+        <v>45239</v>
       </c>
       <c r="B66" t="n">
-        <v>19.08</v>
+        <v>18.87</v>
       </c>
       <c r="C66" t="n">
-        <v>17.93</v>
+        <v>18.16</v>
       </c>
       <c r="D66" t="n">
-        <v>18.99</v>
+        <v>18.66</v>
       </c>
       <c r="E66" t="n">
-        <v>18.54</v>
+        <v>18.27</v>
       </c>
       <c r="F66" t="n">
-        <v>16.78</v>
+        <v>16.825</v>
       </c>
       <c r="G66" t="n">
-        <v>16.78</v>
+        <v>16.825</v>
       </c>
       <c r="H66" t="n">
-        <v>15.245</v>
+        <v>15.28</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>17.87</v>
+        <v>17.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45237</v>
+        <v>45240</v>
       </c>
       <c r="B67" t="n">
-        <v>19.17</v>
+        <v>19.72</v>
       </c>
       <c r="C67" t="n">
-        <v>18.53</v>
+        <v>18.06</v>
       </c>
       <c r="D67" t="n">
-        <v>18.86</v>
+        <v>18.155</v>
       </c>
       <c r="E67" t="n">
-        <v>18.8</v>
+        <v>19.67</v>
       </c>
       <c r="F67" t="n">
-        <v>16.825</v>
+        <v>17.1</v>
       </c>
       <c r="G67" t="n">
-        <v>16.825</v>
+        <v>17.1</v>
       </c>
       <c r="H67" t="n">
-        <v>15.245</v>
+        <v>15.28</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>18.21</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45238</v>
+        <v>45243</v>
       </c>
       <c r="B68" t="n">
-        <v>18.93</v>
+        <v>19.88</v>
       </c>
       <c r="C68" t="n">
-        <v>18.15</v>
+        <v>19.3</v>
       </c>
       <c r="D68" t="n">
-        <v>18.85</v>
+        <v>19.59</v>
       </c>
       <c r="E68" t="n">
-        <v>18.49</v>
+        <v>19.71</v>
       </c>
       <c r="F68" t="n">
-        <v>16.825</v>
+        <v>17.18</v>
       </c>
       <c r="G68" t="n">
-        <v>16.825</v>
+        <v>17.18</v>
       </c>
       <c r="H68" t="n">
-        <v>15.245</v>
+        <v>15.295</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>18.2</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45239</v>
+        <v>45244</v>
       </c>
       <c r="B69" t="n">
-        <v>18.87</v>
+        <v>20.1</v>
       </c>
       <c r="C69" t="n">
-        <v>18.16</v>
+        <v>19.5</v>
       </c>
       <c r="D69" t="n">
-        <v>18.66</v>
+        <v>20</v>
       </c>
       <c r="E69" t="n">
-        <v>18.27</v>
+        <v>19.94</v>
       </c>
       <c r="F69" t="n">
-        <v>16.825</v>
+        <v>18.65505</v>
       </c>
       <c r="G69" t="n">
-        <v>16.825</v>
+        <v>17.29</v>
       </c>
       <c r="H69" t="n">
-        <v>15.28</v>
+        <v>15.875</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>17.84</v>
+        <v>17.59</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45240</v>
+        <v>45245</v>
       </c>
       <c r="B70" t="n">
-        <v>19.72</v>
+        <v>20.37</v>
       </c>
       <c r="C70" t="n">
-        <v>18.06</v>
+        <v>19.611</v>
       </c>
       <c r="D70" t="n">
-        <v>18.155</v>
+        <v>19.9</v>
       </c>
       <c r="E70" t="n">
-        <v>19.67</v>
+        <v>19.95</v>
       </c>
       <c r="F70" t="n">
-        <v>17.1</v>
+        <v>19.065</v>
       </c>
       <c r="G70" t="n">
-        <v>17.1</v>
+        <v>17.425</v>
       </c>
       <c r="H70" t="n">
-        <v>15.28</v>
+        <v>16.325</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>17.95</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45243</v>
+        <v>45246</v>
       </c>
       <c r="B71" t="n">
-        <v>19.88</v>
+        <v>19.875</v>
       </c>
       <c r="C71" t="n">
-        <v>19.3</v>
+        <v>19.29</v>
       </c>
       <c r="D71" t="n">
-        <v>19.59</v>
+        <v>19.8</v>
       </c>
       <c r="E71" t="n">
-        <v>19.71</v>
+        <v>19.77</v>
       </c>
       <c r="F71" t="n">
-        <v>17.18</v>
+        <v>19.15</v>
       </c>
       <c r="G71" t="n">
-        <v>17.18</v>
+        <v>17.425</v>
       </c>
       <c r="H71" t="n">
-        <v>15.295</v>
+        <v>16.345</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>17.25</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45244</v>
+        <v>45247</v>
       </c>
       <c r="B72" t="n">
-        <v>20.1</v>
+        <v>20.58</v>
       </c>
       <c r="C72" t="n">
-        <v>19.5</v>
+        <v>19.6587</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>19.68</v>
       </c>
       <c r="E72" t="n">
-        <v>19.94</v>
+        <v>20.49</v>
       </c>
       <c r="F72" t="n">
-        <v>18.65505</v>
+        <v>19.32</v>
       </c>
       <c r="G72" t="n">
-        <v>17.29</v>
+        <v>17.53</v>
       </c>
       <c r="H72" t="n">
-        <v>15.875</v>
+        <v>16.345</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>17.59</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45245</v>
+        <v>45250</v>
       </c>
       <c r="B73" t="n">
-        <v>20.37</v>
+        <v>21.6</v>
       </c>
       <c r="C73" t="n">
-        <v>19.611</v>
+        <v>20.56</v>
       </c>
       <c r="D73" t="n">
-        <v>19.9</v>
+        <v>20.65</v>
       </c>
       <c r="E73" t="n">
-        <v>19.95</v>
+        <v>21.34</v>
       </c>
       <c r="F73" t="n">
-        <v>19.065</v>
+        <v>19.83</v>
       </c>
       <c r="G73" t="n">
-        <v>17.425</v>
+        <v>18.04</v>
       </c>
       <c r="H73" t="n">
-        <v>16.325</v>
+        <v>16.345</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>17.41</v>
+        <v>17.56</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45246</v>
+        <v>45251</v>
       </c>
       <c r="B74" t="n">
-        <v>19.875</v>
+        <v>21.85</v>
       </c>
       <c r="C74" t="n">
-        <v>19.29</v>
+        <v>19.72</v>
       </c>
       <c r="D74" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="E74" t="n">
         <v>19.8</v>
       </c>
-      <c r="E74" t="n">
-        <v>19.77</v>
-      </c>
       <c r="F74" t="n">
-        <v>19.15</v>
+        <v>19.955</v>
       </c>
       <c r="G74" t="n">
-        <v>17.425</v>
+        <v>18.165</v>
       </c>
       <c r="H74" t="n">
-        <v>16.345</v>
+        <v>16.43</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>17.68</v>
+        <v>17.17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45247</v>
+        <v>45252</v>
       </c>
       <c r="B75" t="n">
-        <v>20.58</v>
+        <v>20.44</v>
       </c>
       <c r="C75" t="n">
-        <v>19.6587</v>
+        <v>19.33</v>
       </c>
       <c r="D75" t="n">
-        <v>19.68</v>
+        <v>20.26</v>
       </c>
       <c r="E75" t="n">
-        <v>20.49</v>
+        <v>19.69</v>
       </c>
       <c r="F75" t="n">
-        <v>19.32</v>
+        <v>19.955</v>
       </c>
       <c r="G75" t="n">
-        <v>17.53</v>
+        <v>18.165</v>
       </c>
       <c r="H75" t="n">
-        <v>16.345</v>
+        <v>16.4925</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>17.47</v>
+        <v>16.58</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45250</v>
+        <v>45254</v>
       </c>
       <c r="B76" t="n">
-        <v>21.6</v>
+        <v>19.6</v>
       </c>
       <c r="C76" t="n">
-        <v>20.56</v>
+        <v>18.93</v>
       </c>
       <c r="D76" t="n">
-        <v>20.65</v>
+        <v>19.38</v>
       </c>
       <c r="E76" t="n">
-        <v>21.34</v>
+        <v>19.2</v>
       </c>
       <c r="F76" t="n">
-        <v>19.83</v>
+        <v>20.39</v>
       </c>
       <c r="G76" t="n">
-        <v>18.04</v>
+        <v>18.165</v>
       </c>
       <c r="H76" t="n">
-        <v>16.345</v>
+        <v>16.5175</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>17.56</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45251</v>
+        <v>45257</v>
       </c>
       <c r="B77" t="n">
-        <v>21.85</v>
+        <v>19.5</v>
       </c>
       <c r="C77" t="n">
-        <v>19.72</v>
+        <v>18.62</v>
       </c>
       <c r="D77" t="n">
-        <v>21.11</v>
+        <v>19.13</v>
       </c>
       <c r="E77" t="n">
-        <v>19.8</v>
+        <v>19.08</v>
       </c>
       <c r="F77" t="n">
-        <v>19.955</v>
+        <v>20.235</v>
       </c>
       <c r="G77" t="n">
         <v>18.165</v>
       </c>
       <c r="H77" t="n">
-        <v>16.43</v>
+        <v>16.695</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>17.17</v>
+        <v>16.25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45252</v>
+        <v>45258</v>
       </c>
       <c r="B78" t="n">
-        <v>20.44</v>
+        <v>19.8</v>
       </c>
       <c r="C78" t="n">
-        <v>19.33</v>
+        <v>19.03</v>
       </c>
       <c r="D78" t="n">
-        <v>20.26</v>
+        <v>19.11</v>
       </c>
       <c r="E78" t="n">
-        <v>19.69</v>
+        <v>19.71</v>
       </c>
       <c r="F78" t="n">
-        <v>19.955</v>
+        <v>20.235</v>
       </c>
       <c r="G78" t="n">
         <v>18.165</v>
       </c>
       <c r="H78" t="n">
-        <v>16.4925</v>
+        <v>16.5925</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>16.58</v>
+        <v>15.98</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45254</v>
+        <v>45259</v>
       </c>
       <c r="B79" t="n">
-        <v>19.6</v>
+        <v>20.31</v>
       </c>
       <c r="C79" t="n">
-        <v>18.93</v>
+        <v>19.78</v>
       </c>
       <c r="D79" t="n">
-        <v>19.38</v>
+        <v>19.945</v>
       </c>
       <c r="E79" t="n">
-        <v>19.2</v>
+        <v>19.84</v>
       </c>
       <c r="F79" t="n">
-        <v>20.39</v>
+        <v>20.235</v>
       </c>
       <c r="G79" t="n">
         <v>18.165</v>
       </c>
       <c r="H79" t="n">
-        <v>16.5175</v>
+        <v>16.4425</v>
       </c>
       <c r="I79" t="n">
         <v>16.06</v>
       </c>
       <c r="J79" t="n">
-        <v>16.09</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45257</v>
+        <v>45260</v>
       </c>
       <c r="B80" t="n">
-        <v>19.5</v>
+        <v>20.23</v>
       </c>
       <c r="C80" t="n">
-        <v>18.62</v>
+        <v>19.68</v>
       </c>
       <c r="D80" t="n">
-        <v>19.13</v>
+        <v>19.94</v>
       </c>
       <c r="E80" t="n">
-        <v>19.08</v>
+        <v>20.05</v>
       </c>
       <c r="F80" t="n">
         <v>20.235</v>
@@ -2686,30 +2686,30 @@
         <v>18.165</v>
       </c>
       <c r="H80" t="n">
-        <v>16.695</v>
+        <v>16.3925</v>
       </c>
       <c r="I80" t="n">
         <v>16.06</v>
       </c>
       <c r="J80" t="n">
-        <v>16.25</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45258</v>
+        <v>45261</v>
       </c>
       <c r="B81" t="n">
-        <v>19.8</v>
+        <v>20.29</v>
       </c>
       <c r="C81" t="n">
-        <v>19.03</v>
+        <v>19.55</v>
       </c>
       <c r="D81" t="n">
-        <v>19.11</v>
+        <v>19.93</v>
       </c>
       <c r="E81" t="n">
-        <v>19.71</v>
+        <v>20.27</v>
       </c>
       <c r="F81" t="n">
         <v>20.235</v>
@@ -2718,542 +2718,542 @@
         <v>18.165</v>
       </c>
       <c r="H81" t="n">
-        <v>16.5925</v>
+        <v>16.3875</v>
       </c>
       <c r="I81" t="n">
         <v>16.06</v>
       </c>
       <c r="J81" t="n">
-        <v>15.98</v>
+        <v>16.79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45259</v>
+        <v>45264</v>
       </c>
       <c r="B82" t="n">
-        <v>20.31</v>
+        <v>19.9</v>
       </c>
       <c r="C82" t="n">
-        <v>19.78</v>
+        <v>18.27</v>
       </c>
       <c r="D82" t="n">
-        <v>19.945</v>
+        <v>19.75</v>
       </c>
       <c r="E82" t="n">
-        <v>19.84</v>
+        <v>18.4</v>
       </c>
       <c r="F82" t="n">
-        <v>20.235</v>
+        <v>20.06</v>
       </c>
       <c r="G82" t="n">
         <v>18.165</v>
       </c>
       <c r="H82" t="n">
-        <v>16.4425</v>
+        <v>16.3475</v>
       </c>
       <c r="I82" t="n">
         <v>16.06</v>
       </c>
       <c r="J82" t="n">
-        <v>16.67</v>
+        <v>16.68</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45260</v>
+        <v>45265</v>
       </c>
       <c r="B83" t="n">
-        <v>20.23</v>
+        <v>18.55</v>
       </c>
       <c r="C83" t="n">
-        <v>19.68</v>
+        <v>17.96</v>
       </c>
       <c r="D83" t="n">
-        <v>19.94</v>
+        <v>18.25</v>
       </c>
       <c r="E83" t="n">
-        <v>20.05</v>
+        <v>18.3</v>
       </c>
       <c r="F83" t="n">
-        <v>20.235</v>
+        <v>19.2</v>
       </c>
       <c r="G83" t="n">
         <v>18.165</v>
       </c>
       <c r="H83" t="n">
-        <v>16.3925</v>
+        <v>16.36</v>
       </c>
       <c r="I83" t="n">
         <v>16.06</v>
       </c>
       <c r="J83" t="n">
-        <v>16.39</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45261</v>
+        <v>45266</v>
       </c>
       <c r="B84" t="n">
-        <v>20.29</v>
+        <v>17.83</v>
       </c>
       <c r="C84" t="n">
-        <v>19.55</v>
+        <v>17.05</v>
       </c>
       <c r="D84" t="n">
-        <v>19.93</v>
+        <v>17.69</v>
       </c>
       <c r="E84" t="n">
-        <v>20.27</v>
+        <v>17.13</v>
       </c>
       <c r="F84" t="n">
-        <v>20.235</v>
+        <v>18.68</v>
       </c>
       <c r="G84" t="n">
         <v>18.165</v>
       </c>
       <c r="H84" t="n">
-        <v>16.3875</v>
+        <v>16.26</v>
       </c>
       <c r="I84" t="n">
         <v>16.06</v>
       </c>
       <c r="J84" t="n">
-        <v>16.79</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45264</v>
+        <v>45267</v>
       </c>
       <c r="B85" t="n">
-        <v>19.9</v>
+        <v>17.48</v>
       </c>
       <c r="C85" t="n">
-        <v>18.27</v>
+        <v>17.08</v>
       </c>
       <c r="D85" t="n">
-        <v>19.75</v>
+        <v>17.22</v>
       </c>
       <c r="E85" t="n">
-        <v>18.4</v>
+        <v>17.22</v>
       </c>
       <c r="F85" t="n">
-        <v>20.06</v>
+        <v>18.68</v>
       </c>
       <c r="G85" t="n">
         <v>18.165</v>
       </c>
       <c r="H85" t="n">
-        <v>16.3475</v>
+        <v>16.112475</v>
       </c>
       <c r="I85" t="n">
         <v>16.06</v>
       </c>
       <c r="J85" t="n">
-        <v>16.68</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45265</v>
+        <v>45268</v>
       </c>
       <c r="B86" t="n">
-        <v>18.55</v>
+        <v>17.92</v>
       </c>
       <c r="C86" t="n">
-        <v>17.96</v>
+        <v>17.09</v>
       </c>
       <c r="D86" t="n">
-        <v>18.25</v>
+        <v>17.18</v>
       </c>
       <c r="E86" t="n">
-        <v>18.3</v>
+        <v>17.77</v>
       </c>
       <c r="F86" t="n">
-        <v>19.2</v>
+        <v>18.68</v>
       </c>
       <c r="G86" t="n">
-        <v>18.165</v>
+        <v>19.45</v>
       </c>
       <c r="H86" t="n">
-        <v>16.36</v>
+        <v>16.005</v>
       </c>
       <c r="I86" t="n">
         <v>16.06</v>
       </c>
       <c r="J86" t="n">
-        <v>16.76</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45266</v>
+        <v>45271</v>
       </c>
       <c r="B87" t="n">
-        <v>17.83</v>
+        <v>18.28</v>
       </c>
       <c r="C87" t="n">
-        <v>17.05</v>
+        <v>17.7</v>
       </c>
       <c r="D87" t="n">
-        <v>17.69</v>
+        <v>17.97</v>
       </c>
       <c r="E87" t="n">
-        <v>17.13</v>
+        <v>17.77</v>
       </c>
       <c r="F87" t="n">
         <v>18.68</v>
       </c>
       <c r="G87" t="n">
-        <v>18.165</v>
+        <v>19.45</v>
       </c>
       <c r="H87" t="n">
-        <v>16.26</v>
+        <v>16.425</v>
       </c>
       <c r="I87" t="n">
         <v>16.06</v>
       </c>
       <c r="J87" t="n">
-        <v>16.53</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45267</v>
+        <v>45272</v>
       </c>
       <c r="B88" t="n">
-        <v>17.48</v>
+        <v>17.88</v>
       </c>
       <c r="C88" t="n">
-        <v>17.08</v>
+        <v>17.2301</v>
       </c>
       <c r="D88" t="n">
-        <v>17.22</v>
+        <v>17.69</v>
       </c>
       <c r="E88" t="n">
-        <v>17.22</v>
+        <v>17.5</v>
       </c>
       <c r="F88" t="n">
-        <v>18.68</v>
+        <v>18.67</v>
       </c>
       <c r="G88" t="n">
-        <v>18.165</v>
+        <v>19.45</v>
       </c>
       <c r="H88" t="n">
-        <v>16.112475</v>
+        <v>16.77945</v>
       </c>
       <c r="I88" t="n">
-        <v>16.06</v>
+        <v>16.37945</v>
       </c>
       <c r="J88" t="n">
-        <v>16.39</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45268</v>
+        <v>45273</v>
       </c>
       <c r="B89" t="n">
-        <v>17.92</v>
+        <v>17.9</v>
       </c>
       <c r="C89" t="n">
-        <v>17.09</v>
+        <v>17.22</v>
       </c>
       <c r="D89" t="n">
-        <v>17.18</v>
+        <v>17.65</v>
       </c>
       <c r="E89" t="n">
-        <v>17.77</v>
+        <v>17.87</v>
       </c>
       <c r="F89" t="n">
-        <v>18.68</v>
+        <v>18.67</v>
       </c>
       <c r="G89" t="n">
         <v>19.45</v>
       </c>
       <c r="H89" t="n">
-        <v>16.005</v>
+        <v>16.78</v>
       </c>
       <c r="I89" t="n">
-        <v>16.06</v>
+        <v>16.38</v>
       </c>
       <c r="J89" t="n">
-        <v>16.4</v>
+        <v>17.33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45271</v>
+        <v>45274</v>
       </c>
       <c r="B90" t="n">
-        <v>18.28</v>
+        <v>18.58</v>
       </c>
       <c r="C90" t="n">
-        <v>17.7</v>
+        <v>17.72</v>
       </c>
       <c r="D90" t="n">
-        <v>17.97</v>
+        <v>18.17</v>
       </c>
       <c r="E90" t="n">
-        <v>17.77</v>
+        <v>18.21</v>
       </c>
       <c r="F90" t="n">
-        <v>18.68</v>
+        <v>18.475</v>
       </c>
       <c r="G90" t="n">
         <v>19.45</v>
       </c>
       <c r="H90" t="n">
+        <v>16.825</v>
+      </c>
+      <c r="I90" t="n">
         <v>16.425</v>
       </c>
-      <c r="I90" t="n">
-        <v>16.06</v>
-      </c>
       <c r="J90" t="n">
-        <v>16.78</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45272</v>
+        <v>45275</v>
       </c>
       <c r="B91" t="n">
-        <v>17.88</v>
+        <v>19.15</v>
       </c>
       <c r="C91" t="n">
-        <v>17.2301</v>
+        <v>18.04</v>
       </c>
       <c r="D91" t="n">
-        <v>17.69</v>
+        <v>18.67</v>
       </c>
       <c r="E91" t="n">
-        <v>17.5</v>
+        <v>18.2</v>
       </c>
       <c r="F91" t="n">
-        <v>18.67</v>
+        <v>18.1</v>
       </c>
       <c r="G91" t="n">
         <v>19.45</v>
       </c>
       <c r="H91" t="n">
-        <v>16.77945</v>
+        <v>16.825</v>
       </c>
       <c r="I91" t="n">
-        <v>16.37945</v>
+        <v>16.425</v>
       </c>
       <c r="J91" t="n">
-        <v>17.6</v>
+        <v>16.46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45273</v>
+        <v>45278</v>
       </c>
       <c r="B92" t="n">
-        <v>17.9</v>
+        <v>18.575</v>
       </c>
       <c r="C92" t="n">
-        <v>17.22</v>
+        <v>17.77</v>
       </c>
       <c r="D92" t="n">
-        <v>17.65</v>
+        <v>18.21</v>
       </c>
       <c r="E92" t="n">
-        <v>17.87</v>
+        <v>17.84</v>
       </c>
       <c r="F92" t="n">
-        <v>18.67</v>
+        <v>18.1</v>
       </c>
       <c r="G92" t="n">
         <v>19.45</v>
       </c>
       <c r="H92" t="n">
-        <v>16.78</v>
+        <v>16.825</v>
       </c>
       <c r="I92" t="n">
-        <v>16.38</v>
+        <v>16.425</v>
       </c>
       <c r="J92" t="n">
-        <v>17.33</v>
+        <v>16.35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B93" t="n">
-        <v>18.58</v>
+        <v>18.19</v>
       </c>
       <c r="C93" t="n">
-        <v>17.72</v>
+        <v>17.84</v>
       </c>
       <c r="D93" t="n">
-        <v>18.17</v>
+        <v>17.98</v>
       </c>
       <c r="E93" t="n">
-        <v>18.21</v>
+        <v>17.95</v>
       </c>
       <c r="F93" t="n">
-        <v>18.475</v>
+        <v>18.115</v>
       </c>
       <c r="G93" t="n">
         <v>19.45</v>
       </c>
       <c r="H93" t="n">
-        <v>16.825</v>
+        <v>17.1</v>
       </c>
       <c r="I93" t="n">
-        <v>16.425</v>
+        <v>16.7</v>
       </c>
       <c r="J93" t="n">
-        <v>16.75</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="B94" t="n">
-        <v>19.15</v>
+        <v>17.92</v>
       </c>
       <c r="C94" t="n">
-        <v>18.04</v>
+        <v>17.19</v>
       </c>
       <c r="D94" t="n">
-        <v>18.67</v>
+        <v>17.87</v>
       </c>
       <c r="E94" t="n">
-        <v>18.2</v>
+        <v>17.25</v>
       </c>
       <c r="F94" t="n">
-        <v>18.1</v>
+        <v>18.12</v>
       </c>
       <c r="G94" t="n">
         <v>19.45</v>
       </c>
       <c r="H94" t="n">
-        <v>16.825</v>
+        <v>17.18</v>
       </c>
       <c r="I94" t="n">
-        <v>16.425</v>
+        <v>16.78</v>
       </c>
       <c r="J94" t="n">
-        <v>16.46</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45278</v>
+        <v>45281</v>
       </c>
       <c r="B95" t="n">
-        <v>18.575</v>
+        <v>17.74</v>
       </c>
       <c r="C95" t="n">
-        <v>17.77</v>
+        <v>17.42</v>
       </c>
       <c r="D95" t="n">
-        <v>18.21</v>
+        <v>17.53</v>
       </c>
       <c r="E95" t="n">
-        <v>17.84</v>
+        <v>17.59</v>
       </c>
       <c r="F95" t="n">
-        <v>18.1</v>
+        <v>18.17</v>
       </c>
       <c r="G95" t="n">
         <v>19.45</v>
       </c>
       <c r="H95" t="n">
-        <v>16.825</v>
+        <v>17.972525</v>
       </c>
       <c r="I95" t="n">
-        <v>16.425</v>
+        <v>16.89</v>
       </c>
       <c r="J95" t="n">
-        <v>16.35</v>
+        <v>16.09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45279</v>
+        <v>45282</v>
       </c>
       <c r="B96" t="n">
-        <v>18.19</v>
+        <v>17.7</v>
       </c>
       <c r="C96" t="n">
-        <v>17.84</v>
+        <v>17.325</v>
       </c>
       <c r="D96" t="n">
-        <v>17.98</v>
+        <v>17.7</v>
       </c>
       <c r="E96" t="n">
-        <v>17.95</v>
+        <v>17.41</v>
       </c>
       <c r="F96" t="n">
-        <v>18.115</v>
+        <v>18.17</v>
       </c>
       <c r="G96" t="n">
         <v>19.45</v>
       </c>
       <c r="H96" t="n">
-        <v>17.1</v>
+        <v>18.245</v>
       </c>
       <c r="I96" t="n">
-        <v>16.7</v>
+        <v>17.025</v>
       </c>
       <c r="J96" t="n">
-        <v>17.09</v>
+        <v>16.33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45280</v>
+        <v>45286</v>
       </c>
       <c r="B97" t="n">
-        <v>17.92</v>
+        <v>17.745</v>
       </c>
       <c r="C97" t="n">
-        <v>17.19</v>
+        <v>17.3299</v>
       </c>
       <c r="D97" t="n">
-        <v>17.87</v>
+        <v>17.44</v>
       </c>
       <c r="E97" t="n">
-        <v>17.25</v>
+        <v>17.68</v>
       </c>
       <c r="F97" t="n">
-        <v>18.12</v>
+        <v>18.17</v>
       </c>
       <c r="G97" t="n">
         <v>19.45</v>
       </c>
       <c r="H97" t="n">
-        <v>17.18</v>
+        <v>18.2875</v>
       </c>
       <c r="I97" t="n">
-        <v>16.78</v>
+        <v>17.025</v>
       </c>
       <c r="J97" t="n">
-        <v>16.74</v>
+        <v>17.02</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B98" t="n">
-        <v>17.74</v>
+        <v>17.91</v>
       </c>
       <c r="C98" t="n">
-        <v>17.42</v>
+        <v>17.45</v>
       </c>
       <c r="D98" t="n">
-        <v>17.53</v>
+        <v>17.78</v>
       </c>
       <c r="E98" t="n">
-        <v>17.59</v>
+        <v>17.47</v>
       </c>
       <c r="F98" t="n">
         <v>18.17</v>
@@ -3262,30 +3262,30 @@
         <v>19.45</v>
       </c>
       <c r="H98" t="n">
-        <v>17.972525</v>
+        <v>18.425</v>
       </c>
       <c r="I98" t="n">
-        <v>16.89</v>
+        <v>17.13</v>
       </c>
       <c r="J98" t="n">
-        <v>16.09</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45282</v>
+        <v>45288</v>
       </c>
       <c r="B99" t="n">
-        <v>17.7</v>
+        <v>17.84</v>
       </c>
       <c r="C99" t="n">
-        <v>17.325</v>
+        <v>17.42</v>
       </c>
       <c r="D99" t="n">
-        <v>17.7</v>
+        <v>17.46</v>
       </c>
       <c r="E99" t="n">
-        <v>17.41</v>
+        <v>17.56</v>
       </c>
       <c r="F99" t="n">
         <v>18.17</v>
@@ -3294,129 +3294,127 @@
         <v>19.45</v>
       </c>
       <c r="H99" t="n">
-        <v>18.245</v>
+        <v>18.935</v>
       </c>
       <c r="I99" t="n">
-        <v>17.025</v>
-      </c>
-      <c r="J99" t="n">
-        <v>16.33</v>
-      </c>
+        <v>17.64</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45286</v>
+        <v>45289</v>
       </c>
       <c r="B100" t="n">
-        <v>17.745</v>
+        <v>17.64</v>
       </c>
       <c r="C100" t="n">
-        <v>17.3299</v>
+        <v>17.1</v>
       </c>
       <c r="D100" t="n">
-        <v>17.44</v>
+        <v>17.52</v>
       </c>
       <c r="E100" t="n">
-        <v>17.68</v>
+        <v>17.17</v>
       </c>
       <c r="F100" t="n">
-        <v>18.17</v>
+        <v>17.8375</v>
       </c>
       <c r="G100" t="n">
-        <v>19.45</v>
+        <v>18.745</v>
       </c>
       <c r="H100" t="n">
-        <v>18.2875</v>
+        <v>19.06</v>
       </c>
       <c r="I100" t="n">
-        <v>17.025</v>
+        <v>17.765</v>
       </c>
       <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45287</v>
+        <v>45293</v>
       </c>
       <c r="B101" t="n">
-        <v>17.91</v>
+        <v>16.95</v>
       </c>
       <c r="C101" t="n">
-        <v>17.45</v>
+        <v>16.5</v>
       </c>
       <c r="D101" t="n">
-        <v>17.78</v>
+        <v>16.95</v>
       </c>
       <c r="E101" t="n">
-        <v>17.47</v>
+        <v>16.58</v>
       </c>
       <c r="F101" t="n">
-        <v>18.17</v>
+        <v>17.345</v>
       </c>
       <c r="G101" t="n">
-        <v>19.45</v>
+        <v>18.405</v>
       </c>
       <c r="H101" t="n">
-        <v>18.425</v>
+        <v>19.06</v>
       </c>
       <c r="I101" t="n">
-        <v>17.13</v>
+        <v>17.765</v>
       </c>
       <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45288</v>
+        <v>45294</v>
       </c>
       <c r="B102" t="n">
-        <v>17.84</v>
+        <v>16.38</v>
       </c>
       <c r="C102" t="n">
-        <v>17.42</v>
+        <v>16.01</v>
       </c>
       <c r="D102" t="n">
-        <v>17.46</v>
+        <v>16.12</v>
       </c>
       <c r="E102" t="n">
-        <v>17.56</v>
+        <v>16.09</v>
       </c>
       <c r="F102" t="n">
-        <v>18.17</v>
+        <v>16.965</v>
       </c>
       <c r="G102" t="n">
-        <v>19.45</v>
+        <v>18.16</v>
       </c>
       <c r="H102" t="n">
-        <v>18.935</v>
+        <v>19.2775</v>
       </c>
       <c r="I102" t="n">
-        <v>17.64</v>
+        <v>17.765</v>
       </c>
       <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45289</v>
+        <v>45295</v>
       </c>
       <c r="B103" t="n">
-        <v>17.64</v>
+        <v>16.58</v>
       </c>
       <c r="C103" t="n">
-        <v>17.1</v>
+        <v>15.95</v>
       </c>
       <c r="D103" t="n">
-        <v>17.52</v>
+        <v>16.05</v>
       </c>
       <c r="E103" t="n">
-        <v>17.17</v>
+        <v>16.25</v>
       </c>
       <c r="F103" t="n">
-        <v>17.8375</v>
+        <v>16.93</v>
       </c>
       <c r="G103" t="n">
-        <v>18.745</v>
+        <v>18.13</v>
       </c>
       <c r="H103" t="n">
-        <v>19.06</v>
+        <v>19.2</v>
       </c>
       <c r="I103" t="n">
         <v>17.765</v>
@@ -3425,28 +3423,28 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B104" t="n">
-        <v>16.95</v>
+        <v>16.1279</v>
       </c>
       <c r="C104" t="n">
-        <v>16.5</v>
+        <v>15.664</v>
       </c>
       <c r="D104" t="n">
-        <v>16.95</v>
+        <v>15.7</v>
       </c>
       <c r="E104" t="n">
-        <v>16.58</v>
+        <v>15.98</v>
       </c>
       <c r="F104" t="n">
-        <v>17.345</v>
+        <v>16.787</v>
       </c>
       <c r="G104" t="n">
-        <v>18.405</v>
+        <v>17.987</v>
       </c>
       <c r="H104" t="n">
-        <v>19.06</v>
+        <v>19.2</v>
       </c>
       <c r="I104" t="n">
         <v>17.765</v>
@@ -3455,28 +3453,28 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45294</v>
+        <v>45299</v>
       </c>
       <c r="B105" t="n">
-        <v>16.38</v>
+        <v>16.89</v>
       </c>
       <c r="C105" t="n">
-        <v>16.01</v>
+        <v>16.14</v>
       </c>
       <c r="D105" t="n">
-        <v>16.12</v>
+        <v>16.22</v>
       </c>
       <c r="E105" t="n">
-        <v>16.09</v>
+        <v>16.67</v>
       </c>
       <c r="F105" t="n">
-        <v>16.965</v>
+        <v>16.787</v>
       </c>
       <c r="G105" t="n">
-        <v>18.16</v>
+        <v>17.977</v>
       </c>
       <c r="H105" t="n">
-        <v>19.2775</v>
+        <v>19.2</v>
       </c>
       <c r="I105" t="n">
         <v>17.765</v>
@@ -3485,25 +3483,25 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45295</v>
+        <v>45300</v>
       </c>
       <c r="B106" t="n">
-        <v>16.58</v>
+        <v>16.63</v>
       </c>
       <c r="C106" t="n">
-        <v>15.95</v>
+        <v>16.28</v>
       </c>
       <c r="D106" t="n">
-        <v>16.05</v>
+        <v>16.51</v>
       </c>
       <c r="E106" t="n">
-        <v>16.25</v>
+        <v>16.39</v>
       </c>
       <c r="F106" t="n">
-        <v>16.93</v>
+        <v>16.787</v>
       </c>
       <c r="G106" t="n">
-        <v>18.13</v>
+        <v>17.977</v>
       </c>
       <c r="H106" t="n">
         <v>19.2</v>
@@ -3515,25 +3513,25 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45296</v>
+        <v>45301</v>
       </c>
       <c r="B107" t="n">
-        <v>16.1279</v>
+        <v>17.0299</v>
       </c>
       <c r="C107" t="n">
-        <v>15.664</v>
+        <v>16.4</v>
       </c>
       <c r="D107" t="n">
-        <v>15.7</v>
+        <v>16.5</v>
       </c>
       <c r="E107" t="n">
-        <v>15.98</v>
+        <v>16.79</v>
       </c>
       <c r="F107" t="n">
-        <v>16.787</v>
+        <v>16.752</v>
       </c>
       <c r="G107" t="n">
-        <v>17.987</v>
+        <v>17.782</v>
       </c>
       <c r="H107" t="n">
         <v>19.2</v>
@@ -3545,28 +3543,28 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B108" t="n">
-        <v>16.89</v>
+        <v>16.93</v>
       </c>
       <c r="C108" t="n">
-        <v>16.14</v>
+        <v>16.17</v>
       </c>
       <c r="D108" t="n">
-        <v>16.22</v>
+        <v>16.81</v>
       </c>
       <c r="E108" t="n">
-        <v>16.67</v>
+        <v>16.68</v>
       </c>
       <c r="F108" t="n">
-        <v>16.787</v>
+        <v>16.652</v>
       </c>
       <c r="G108" t="n">
-        <v>17.977</v>
+        <v>17.407</v>
       </c>
       <c r="H108" t="n">
-        <v>19.2</v>
+        <v>19.1125</v>
       </c>
       <c r="I108" t="n">
         <v>17.765</v>
@@ -3575,109 +3573,109 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="B109" t="n">
-        <v>16.63</v>
+        <v>17.06</v>
       </c>
       <c r="C109" t="n">
-        <v>16.28</v>
+        <v>16.62</v>
       </c>
       <c r="D109" t="n">
-        <v>16.51</v>
+        <v>16.68</v>
       </c>
       <c r="E109" t="n">
-        <v>16.39</v>
+        <v>16.76</v>
       </c>
       <c r="F109" t="n">
-        <v>16.787</v>
+        <v>16.362</v>
       </c>
       <c r="G109" t="n">
-        <v>17.977</v>
+        <v>17.407</v>
       </c>
       <c r="H109" t="n">
-        <v>19.2</v>
+        <v>18.6825</v>
       </c>
       <c r="I109" t="n">
-        <v>17.765</v>
+        <v>17.835</v>
       </c>
       <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45301</v>
+        <v>45307</v>
       </c>
       <c r="B110" t="n">
-        <v>17.0299</v>
+        <v>16.74</v>
       </c>
       <c r="C110" t="n">
-        <v>16.4</v>
+        <v>16.29</v>
       </c>
       <c r="D110" t="n">
-        <v>16.5</v>
+        <v>16.59</v>
       </c>
       <c r="E110" t="n">
-        <v>16.79</v>
+        <v>16.53</v>
       </c>
       <c r="F110" t="n">
-        <v>16.752</v>
+        <v>16.362</v>
       </c>
       <c r="G110" t="n">
-        <v>17.782</v>
+        <v>17.407</v>
       </c>
       <c r="H110" t="n">
-        <v>19.2</v>
+        <v>18.4225</v>
       </c>
       <c r="I110" t="n">
-        <v>17.765</v>
+        <v>17.835</v>
       </c>
       <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45302</v>
+        <v>45308</v>
       </c>
       <c r="B111" t="n">
-        <v>16.93</v>
+        <v>16.41</v>
       </c>
       <c r="C111" t="n">
-        <v>16.17</v>
+        <v>16.05</v>
       </c>
       <c r="D111" t="n">
-        <v>16.81</v>
+        <v>16.26</v>
       </c>
       <c r="E111" t="n">
-        <v>16.68</v>
+        <v>16.39</v>
       </c>
       <c r="F111" t="n">
-        <v>16.652</v>
+        <v>16.362</v>
       </c>
       <c r="G111" t="n">
         <v>17.407</v>
       </c>
       <c r="H111" t="n">
-        <v>19.1125</v>
+        <v>18.4225</v>
       </c>
       <c r="I111" t="n">
-        <v>17.765</v>
+        <v>17.865</v>
       </c>
       <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45303</v>
+        <v>45309</v>
       </c>
       <c r="B112" t="n">
-        <v>17.06</v>
+        <v>16.81</v>
       </c>
       <c r="C112" t="n">
-        <v>16.62</v>
+        <v>16.1</v>
       </c>
       <c r="D112" t="n">
-        <v>16.68</v>
+        <v>16.75</v>
       </c>
       <c r="E112" t="n">
-        <v>16.76</v>
+        <v>16.4</v>
       </c>
       <c r="F112" t="n">
         <v>16.362</v>
@@ -3686,127 +3684,127 @@
         <v>17.407</v>
       </c>
       <c r="H112" t="n">
-        <v>18.6825</v>
+        <v>19.065</v>
       </c>
       <c r="I112" t="n">
-        <v>17.835</v>
+        <v>18.005</v>
       </c>
       <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B113" t="n">
-        <v>16.74</v>
+        <v>16.78</v>
       </c>
       <c r="C113" t="n">
-        <v>16.29</v>
+        <v>16.15</v>
       </c>
       <c r="D113" t="n">
-        <v>16.59</v>
+        <v>16.57</v>
       </c>
       <c r="E113" t="n">
-        <v>16.53</v>
+        <v>16.78</v>
       </c>
       <c r="F113" t="n">
-        <v>16.362</v>
+        <v>16.555</v>
       </c>
       <c r="G113" t="n">
         <v>17.407</v>
       </c>
       <c r="H113" t="n">
-        <v>18.4225</v>
+        <v>19.065</v>
       </c>
       <c r="I113" t="n">
-        <v>17.835</v>
+        <v>18.165</v>
       </c>
       <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45308</v>
+        <v>45313</v>
       </c>
       <c r="B114" t="n">
-        <v>16.41</v>
+        <v>18.3503</v>
       </c>
       <c r="C114" t="n">
-        <v>16.05</v>
+        <v>17.43</v>
       </c>
       <c r="D114" t="n">
-        <v>16.26</v>
+        <v>17.46</v>
       </c>
       <c r="E114" t="n">
-        <v>16.39</v>
+        <v>17.6</v>
       </c>
       <c r="F114" t="n">
-        <v>16.362</v>
+        <v>17.20015</v>
       </c>
       <c r="G114" t="n">
         <v>17.407</v>
       </c>
       <c r="H114" t="n">
-        <v>18.4225</v>
+        <v>19.06</v>
       </c>
       <c r="I114" t="n">
-        <v>17.865</v>
+        <v>18.165</v>
       </c>
       <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45309</v>
+        <v>45314</v>
       </c>
       <c r="B115" t="n">
-        <v>16.81</v>
+        <v>17.73</v>
       </c>
       <c r="C115" t="n">
-        <v>16.1</v>
+        <v>17.2</v>
       </c>
       <c r="D115" t="n">
-        <v>16.75</v>
+        <v>17.64</v>
       </c>
       <c r="E115" t="n">
-        <v>16.4</v>
+        <v>17.33</v>
       </c>
       <c r="F115" t="n">
-        <v>16.362</v>
+        <v>17.20015</v>
       </c>
       <c r="G115" t="n">
         <v>17.407</v>
       </c>
       <c r="H115" t="n">
-        <v>19.065</v>
+        <v>19.06</v>
       </c>
       <c r="I115" t="n">
-        <v>18.005</v>
+        <v>18.165</v>
       </c>
       <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45310</v>
+        <v>45315</v>
       </c>
       <c r="B116" t="n">
-        <v>16.78</v>
+        <v>17.65</v>
       </c>
       <c r="C116" t="n">
-        <v>16.15</v>
+        <v>16.735</v>
       </c>
       <c r="D116" t="n">
-        <v>16.57</v>
+        <v>17.51</v>
       </c>
       <c r="E116" t="n">
-        <v>16.78</v>
+        <v>16.75</v>
       </c>
       <c r="F116" t="n">
-        <v>16.555</v>
+        <v>17.20015</v>
       </c>
       <c r="G116" t="n">
         <v>17.407</v>
       </c>
       <c r="H116" t="n">
-        <v>19.065</v>
+        <v>18.9625</v>
       </c>
       <c r="I116" t="n">
         <v>18.165</v>
@@ -3815,28 +3813,28 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="B117" t="n">
-        <v>18.3503</v>
+        <v>17</v>
       </c>
       <c r="C117" t="n">
-        <v>17.43</v>
+        <v>16.31</v>
       </c>
       <c r="D117" t="n">
-        <v>17.46</v>
+        <v>16.92</v>
       </c>
       <c r="E117" t="n">
-        <v>17.6</v>
+        <v>16.46</v>
       </c>
       <c r="F117" t="n">
         <v>17.20015</v>
       </c>
       <c r="G117" t="n">
-        <v>17.407</v>
+        <v>17.1195</v>
       </c>
       <c r="H117" t="n">
-        <v>19.06</v>
+        <v>18.775</v>
       </c>
       <c r="I117" t="n">
         <v>18.165</v>
@@ -3845,28 +3843,28 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B118" t="n">
-        <v>17.73</v>
+        <v>16.75</v>
       </c>
       <c r="C118" t="n">
-        <v>17.2</v>
+        <v>16.34</v>
       </c>
       <c r="D118" t="n">
-        <v>17.64</v>
+        <v>16.4</v>
       </c>
       <c r="E118" t="n">
-        <v>17.33</v>
+        <v>16.35</v>
       </c>
       <c r="F118" t="n">
         <v>17.20015</v>
       </c>
       <c r="G118" t="n">
-        <v>17.407</v>
+        <v>17.00715</v>
       </c>
       <c r="H118" t="n">
-        <v>19.06</v>
+        <v>18.775</v>
       </c>
       <c r="I118" t="n">
         <v>18.165</v>
@@ -3875,28 +3873,28 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45315</v>
+        <v>45320</v>
       </c>
       <c r="B119" t="n">
-        <v>17.65</v>
+        <v>17.11</v>
       </c>
       <c r="C119" t="n">
-        <v>16.735</v>
+        <v>16.43</v>
       </c>
       <c r="D119" t="n">
-        <v>17.51</v>
+        <v>16.45</v>
       </c>
       <c r="E119" t="n">
-        <v>16.75</v>
+        <v>17.09</v>
       </c>
       <c r="F119" t="n">
         <v>17.20015</v>
       </c>
       <c r="G119" t="n">
-        <v>17.407</v>
+        <v>17.00715</v>
       </c>
       <c r="H119" t="n">
-        <v>18.9625</v>
+        <v>18.7825</v>
       </c>
       <c r="I119" t="n">
         <v>18.165</v>
@@ -3905,28 +3903,28 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="B120" t="n">
-        <v>17</v>
+        <v>17.24</v>
       </c>
       <c r="C120" t="n">
-        <v>16.31</v>
+        <v>16.66</v>
       </c>
       <c r="D120" t="n">
-        <v>16.92</v>
+        <v>17.04</v>
       </c>
       <c r="E120" t="n">
-        <v>16.46</v>
+        <v>16.74</v>
       </c>
       <c r="F120" t="n">
-        <v>17.20015</v>
+        <v>17.22515</v>
       </c>
       <c r="G120" t="n">
-        <v>17.1195</v>
+        <v>17.00715</v>
       </c>
       <c r="H120" t="n">
-        <v>18.775</v>
+        <v>18.785</v>
       </c>
       <c r="I120" t="n">
         <v>18.165</v>
@@ -3935,28 +3933,28 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="B121" t="n">
-        <v>16.75</v>
+        <v>16.76</v>
       </c>
       <c r="C121" t="n">
-        <v>16.34</v>
+        <v>16.07</v>
       </c>
       <c r="D121" t="n">
-        <v>16.4</v>
+        <v>16.41</v>
       </c>
       <c r="E121" t="n">
-        <v>16.35</v>
+        <v>16.09</v>
       </c>
       <c r="F121" t="n">
-        <v>17.20015</v>
+        <v>17.21015</v>
       </c>
       <c r="G121" t="n">
         <v>17.00715</v>
       </c>
       <c r="H121" t="n">
-        <v>18.775</v>
+        <v>18.81</v>
       </c>
       <c r="I121" t="n">
         <v>18.165</v>
@@ -3965,28 +3963,28 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B122" t="n">
-        <v>17.11</v>
+        <v>16.4868</v>
       </c>
       <c r="C122" t="n">
-        <v>16.43</v>
+        <v>16.03</v>
       </c>
       <c r="D122" t="n">
-        <v>16.45</v>
+        <v>16.21</v>
       </c>
       <c r="E122" t="n">
-        <v>17.09</v>
+        <v>16.33</v>
       </c>
       <c r="F122" t="n">
-        <v>17.20015</v>
+        <v>17.19015</v>
       </c>
       <c r="G122" t="n">
         <v>17.00715</v>
       </c>
       <c r="H122" t="n">
-        <v>18.7825</v>
+        <v>18.81</v>
       </c>
       <c r="I122" t="n">
         <v>18.165</v>
@@ -3995,28 +3993,28 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="B123" t="n">
-        <v>17.24</v>
+        <v>17.02</v>
       </c>
       <c r="C123" t="n">
-        <v>16.66</v>
+        <v>16.145</v>
       </c>
       <c r="D123" t="n">
-        <v>17.04</v>
+        <v>16.34</v>
       </c>
       <c r="E123" t="n">
-        <v>16.74</v>
+        <v>17.02</v>
       </c>
       <c r="F123" t="n">
-        <v>17.22515</v>
+        <v>16.88</v>
       </c>
       <c r="G123" t="n">
         <v>17.00715</v>
       </c>
       <c r="H123" t="n">
-        <v>18.785</v>
+        <v>18.81</v>
       </c>
       <c r="I123" t="n">
         <v>18.165</v>
@@ -4025,22 +4023,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45322</v>
+        <v>45327</v>
       </c>
       <c r="B124" t="n">
-        <v>16.76</v>
+        <v>17.87</v>
       </c>
       <c r="C124" t="n">
-        <v>16.07</v>
+        <v>16.48</v>
       </c>
       <c r="D124" t="n">
-        <v>16.41</v>
+        <v>17.56</v>
       </c>
       <c r="E124" t="n">
-        <v>16.09</v>
+        <v>16.72</v>
       </c>
       <c r="F124" t="n">
-        <v>17.21015</v>
+        <v>16.95</v>
       </c>
       <c r="G124" t="n">
         <v>17.00715</v>
@@ -4052,36 +4050,6 @@
         <v>18.165</v>
       </c>
       <c r="J124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B125" t="n">
-        <v>16.4868</v>
-      </c>
-      <c r="C125" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="D125" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="E125" t="n">
-        <v>16.33</v>
-      </c>
-      <c r="F125" t="n">
-        <v>17.19015</v>
-      </c>
-      <c r="G125" t="n">
-        <v>17.00715</v>
-      </c>
-      <c r="H125" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="I125" t="n">
-        <v>18.165</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
